--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C93A61-289B-446D-B0AD-0599ED0A6503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A09BA-60C8-46DB-87C7-E96E345496EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2414,19 +2414,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2438,11 +2438,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2784,7 +2784,7 @@
   <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D14" sqref="D14:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2801,20 +2801,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3103,11 +3103,11 @@
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="6">
         <f>+VLOOKUP($D$24,'3'!$U$2:$V$3,2,FALSE)</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3170,7 +3170,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3187,7 +3187,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3204,10 +3204,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3221,10 +3221,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3238,10 +3238,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3255,10 +3255,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3288,10 +3288,10 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17" t="e">
         <f>+E36</f>
         <v>#N/A</v>
@@ -3306,10 +3306,10 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="49" t="e">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
         <v>#N/A</v>
@@ -3321,10 +3321,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.5</v>
@@ -3336,10 +3336,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="49" t="e">
         <f>+D37*D38</f>
         <v>#N/A</v>
@@ -3351,10 +3351,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3365,10 +3365,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="51" t="e">
         <f>+D39*D40</f>
         <v>#N/A</v>
@@ -3393,10 +3393,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3407,10 +3407,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3419,10 +3419,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3431,10 +3431,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45834</v>
@@ -3463,6 +3463,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3479,27 +3500,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3607,11 +3607,11 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699A09BA-60C8-46DB-87C7-E96E345496EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F567630-7F80-4A27-BA73-A9B3CBEDB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="627">
   <si>
     <t>Барилгын нэр</t>
   </si>
@@ -570,9 +570,6 @@
     <t>Мансард 50%</t>
   </si>
   <si>
-    <t>Орон сууцны зээлийн урьдчилгаанд тавих</t>
-  </si>
-  <si>
     <t>Санхүүгийн түшиг зээл</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>Бусад зээл /&lt;=80 м.кв/</t>
   </si>
   <si>
-    <t>Орон сууц худалдан авах зээл</t>
-  </si>
-  <si>
     <t>Зээл зөвшөөрөх дээд үнэ тооцох хувь:</t>
   </si>
   <si>
@@ -1948,6 +1942,9 @@
   </si>
   <si>
     <t>Monnis Office</t>
+  </si>
+  <si>
+    <t>Бизнесийн зээл</t>
   </si>
 </sst>
 </file>
@@ -2414,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2438,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2783,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2801,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2865,11 +2862,11 @@
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="54" t="s">
-        <v>169</v>
+        <v>626</v>
       </c>
       <c r="E8" s="6">
         <f>+VLOOKUP($D$8,'3'!$G$2:$H$7,2,FALSE)</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -2937,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="60"/>
@@ -2964,7 +2961,7 @@
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -2974,11 +2971,11 @@
         <v>7</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2991,8 +2988,8 @@
         <v>18</v>
       </c>
       <c r="C17" s="85"/>
-      <c r="D17" s="54" t="s">
-        <v>433</v>
+      <c r="D17" s="54">
+        <v>52</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3005,9 +3002,9 @@
         <v>32</v>
       </c>
       <c r="C18" s="85"/>
-      <c r="D18" s="43" t="e" cm="1">
+      <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>DHL tower</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3020,9 +3017,9 @@
         <v>66</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="43" t="e" cm="1">
+      <c r="D19" s="43" cm="1">
         <f t="array" ref="D19">INDEX('2'!I:I, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>2010</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -3035,9 +3032,9 @@
         <v>23</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="43" t="e" cm="1">
+      <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3053,9 +3050,9 @@
       <c r="D21" s="54">
         <v>3</v>
       </c>
-      <c r="E21" s="6" t="e">
+      <c r="E21" s="6" t="str">
         <f>IF($D$21=1,"0.95",IF($D$21=$D$20,"0.95",IF($D$21='3'!$L$1,"0.4",IF($D$21='3'!$L$2,"0.5",IF($D$21='3'!$L$3,0.75,IF($D$21='3'!$L$4,0.5,IF($D$21&gt;$D$20,"0","1")))))))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3070,9 +3067,9 @@
       <c r="D22" s="57">
         <v>49</v>
       </c>
-      <c r="E22" s="14" t="e">
+      <c r="E22" s="14">
         <f>+IF($D$19&gt;2000,IF($D$22&gt;160,0.8,IF($D$22&gt;80,0.9,1)),1)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3089,7 +3086,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3099,15 +3096,15 @@
         <v>15</v>
       </c>
       <c r="B24" s="84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="6">
         <f>+VLOOKUP($D$24,'3'!$U$2:$V$3,2,FALSE)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -3136,14 +3133,14 @@
       </c>
       <c r="B26" s="86"/>
       <c r="C26" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6">
         <f>+VLOOKUP($D$26,'3'!$S$2:$T$7,2,FALSE)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="88" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3170,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3187,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3204,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3221,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3238,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3255,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="83"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3288,17 +3285,17 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="17" t="e">
+      <c r="C36" s="80"/>
+      <c r="D36" s="17">
         <f>+E36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="41" t="e">
+        <v>5000000</v>
+      </c>
+      <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>#N/A</v>
+        <v>5000000</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3306,13 +3303,13 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="49" t="e">
+      <c r="B37" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>#N/A</v>
+        <v>245000000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3321,13 +3318,13 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="83"/>
+      <c r="B38" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="81"/>
       <c r="D38" s="52">
         <f>+E8</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -3336,13 +3333,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="49" t="e">
+      <c r="B39" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>#N/A</v>
+        <v>171500000</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3351,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="81"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3365,13 +3362,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="51" t="e">
+      <c r="C41" s="83"/>
+      <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>#N/A</v>
+        <v>171500000</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3393,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3407,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="81"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3419,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3431,13 +3428,13 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="81"/>
+      <c r="B47" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="80"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -3453,37 +3450,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3500,6 +3476,27 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3586,7 +3583,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
-            <xm:f>'3'!$G$4:$G$7</xm:f>
+            <xm:f>'3'!$G$2:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
@@ -3607,11 +3604,11 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3679,10 +3676,10 @@
         <v>17</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M2" s="71" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>24</v>
@@ -3691,7 +3688,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="68" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3711,7 +3708,7 @@
         <v>14250</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>43</v>
@@ -3723,7 +3720,7 @@
         <v>2023</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K3" s="73">
         <f>+K28</f>
@@ -3737,14 +3734,14 @@
       </c>
       <c r="N3" s="24">
         <f>+IF(O3="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="O3" s="24">
         <f>+IF(B3='1'!$D$15,IF(C3='1'!$D$16, '2'!D3,""),"")</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3762,7 +3759,7 @@
         <v>14251</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>43</v>
@@ -3783,14 +3780,14 @@
       </c>
       <c r="N4" s="24">
         <f t="shared" ref="N4:N35" si="0">+IF(O4="",0,N3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24">
         <f>+IF(B4='1'!$D$15,IF(C4='1'!$D$16, '2'!D4,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3810,7 +3807,7 @@
         <v>14251</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>43</v>
@@ -3835,14 +3832,14 @@
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>+IF(B5='1'!$D$15,IF(C5='1'!$D$16, '2'!D5,""),"")</f>
-        <v/>
+        <v>6/1</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -3862,7 +3859,7 @@
         <v>14251</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>43</v>
@@ -3887,14 +3884,14 @@
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="24" t="str">
         <f>+IF(B6='1'!$D$15,IF(C6='1'!$D$16, '2'!D6,""),"")</f>
-        <v/>
+        <v>6/2</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3914,7 +3911,7 @@
         <v>14251</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>43</v>
@@ -3939,14 +3936,14 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="O7" s="24">
         <f>+IF(B7='1'!$D$15,IF(C7='1'!$D$16, '2'!D7,""),"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3966,7 +3963,7 @@
         <v>14251</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>43</v>
@@ -3991,14 +3988,14 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="O8" s="24">
         <f>+IF(B8='1'!$D$15,IF(C8='1'!$D$16, '2'!D8,""),"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="P8" s="69" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4018,7 +4015,7 @@
         <v>14251</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>43</v>
@@ -4043,14 +4040,14 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="O9" s="24">
         <f>+IF(B9='1'!$D$15,IF(C9='1'!$D$16, '2'!D9,""),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4070,7 +4067,7 @@
         <v>14251</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>43</v>
@@ -4082,7 +4079,7 @@
         <v>2017</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K10" s="74">
         <v>6000000</v>
@@ -4095,14 +4092,14 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O10" s="24" t="str">
         <f>+IF(B10='1'!$D$15,IF(C10='1'!$D$16, '2'!D10,""),"")</f>
-        <v/>
+        <v>10Б</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4129,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>124</v>
@@ -4145,14 +4142,14 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="24" t="str">
+        <v>9</v>
+      </c>
+      <c r="O11" s="24">
         <f>+IF(B11='1'!$D$15,IF(C11='1'!$D$16, '2'!D11,""),"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4170,7 +4167,7 @@
         <v>14251</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>43</v>
@@ -4179,7 +4176,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="74">
@@ -4193,14 +4190,14 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24">
         <f>+IF(B12='1'!$D$15,IF(C12='1'!$D$16, '2'!D12,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4220,7 +4217,7 @@
         <v>14251</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>43</v>
@@ -4245,14 +4242,14 @@
       </c>
       <c r="N13" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="O13" s="24">
         <f>+IF(B13='1'!$D$15,IF(C13='1'!$D$16, '2'!D13,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4272,7 +4269,7 @@
         <v>14241</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>43</v>
@@ -4297,14 +4294,14 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="O14" s="24">
         <f>+IF(B14='1'!$D$15,IF(C14='1'!$D$16, '2'!D14,""),"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4324,7 +4321,7 @@
         <v>14240</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>43</v>
@@ -4350,14 +4347,14 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="24" t="str">
+        <v>13</v>
+      </c>
+      <c r="O15" s="24">
         <f>+IF(B15='1'!$D$15,IF(C15='1'!$D$16, '2'!D15,""),"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4377,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>43</v>
@@ -4402,14 +4399,14 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="24" t="str">
+        <v>14</v>
+      </c>
+      <c r="O16" s="24">
         <f>+IF(B16='1'!$D$15,IF(C16='1'!$D$16, '2'!D16,""),"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4429,7 +4426,7 @@
         <v>14240</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>43</v>
@@ -4454,14 +4451,14 @@
       </c>
       <c r="N17" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O17" s="24" t="str">
         <f>+IF(B17='1'!$D$15,IF(C17='1'!$D$16, '2'!D17,""),"")</f>
-        <v/>
+        <v>8/1</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4481,7 +4478,7 @@
         <v>14240</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>43</v>
@@ -4507,14 +4504,14 @@
       </c>
       <c r="N18" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="24" t="str">
+        <v>16</v>
+      </c>
+      <c r="O18" s="24">
         <f>+IF(B18='1'!$D$15,IF(C18='1'!$D$16, '2'!D18,""),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4534,7 +4531,7 @@
         <v>14240</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>43</v>
@@ -4559,14 +4556,14 @@
       </c>
       <c r="N19" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="24" t="str">
+        <v>17</v>
+      </c>
+      <c r="O19" s="24">
         <f>+IF(B19='1'!$D$15,IF(C19='1'!$D$16, '2'!D19,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4584,7 +4581,7 @@
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>43</v>
@@ -4610,14 +4607,14 @@
       </c>
       <c r="N20" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="24" t="str">
+        <v>18</v>
+      </c>
+      <c r="O20" s="24">
         <f>+IF(B20='1'!$D$15,IF(C20='1'!$D$16, '2'!D20,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4637,7 +4634,7 @@
         <v>14240</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>43</v>
@@ -4649,7 +4646,7 @@
         <v>2016</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K21" s="74">
         <v>9642600</v>
@@ -4662,14 +4659,14 @@
       </c>
       <c r="N21" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O21" s="24" t="str">
         <f>+IF(B21='1'!$D$15,IF(C21='1'!$D$16, '2'!D21,""),"")</f>
-        <v/>
+        <v>18/1</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4689,7 +4686,7 @@
         <v>14240</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>43</v>
@@ -4701,7 +4698,7 @@
         <v>2019</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K22" s="74">
         <v>9585000</v>
@@ -4714,14 +4711,14 @@
       </c>
       <c r="N22" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O22" s="24" t="str">
         <f>+IF(B22='1'!$D$15,IF(C22='1'!$D$16, '2'!D22,""),"")</f>
-        <v/>
+        <v>18/2</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4751,7 +4748,7 @@
         <v>2017</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K23" s="74">
         <v>9585000</v>
@@ -4764,14 +4761,14 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="24" t="str">
+        <v>21</v>
+      </c>
+      <c r="O23" s="24">
         <f>+IF(B23='1'!$D$15,IF(C23='1'!$D$16, '2'!D23,""),"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4791,7 +4788,7 @@
         <v>14240</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>43</v>
@@ -4803,7 +4800,7 @@
         <v>2011</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K24" s="74">
         <v>9585000</v>
@@ -4816,14 +4813,14 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="24" t="str">
+        <v>22</v>
+      </c>
+      <c r="O24" s="24">
         <f>+IF(B24='1'!$D$15,IF(C24='1'!$D$16, '2'!D24,""),"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4843,7 +4840,7 @@
         <v>14240</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>43</v>
@@ -4868,14 +4865,14 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="24" t="str">
+        <v>23</v>
+      </c>
+      <c r="O25" s="24">
         <f>+IF(B25='1'!$D$15,IF(C25='1'!$D$16, '2'!D25,""),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4918,14 +4915,14 @@
       </c>
       <c r="N26" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="24" t="str">
+        <v>24</v>
+      </c>
+      <c r="O26" s="24">
         <f>+IF(B26='1'!$D$15,IF(C26='1'!$D$16, '2'!D26,""),"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4945,7 +4942,7 @@
         <v>14240</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>43</v>
@@ -4970,14 +4967,14 @@
       </c>
       <c r="N27" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O27" s="24" t="str">
         <f>+IF(B27='1'!$D$15,IF(C27='1'!$D$16, '2'!D27,""),"")</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4997,7 +4994,7 @@
         <v>14240</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>43</v>
@@ -5022,14 +5019,14 @@
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="24" t="str">
+        <v>26</v>
+      </c>
+      <c r="O28" s="24">
         <f>+IF(B28='1'!$D$15,IF(C28='1'!$D$16, '2'!D28,""),"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -5047,7 +5044,7 @@
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>43</v>
@@ -5059,7 +5056,7 @@
         <v>2015</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K29" s="74">
         <v>10000000</v>
@@ -5072,14 +5069,14 @@
       </c>
       <c r="N29" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="24" t="str">
+        <v>27</v>
+      </c>
+      <c r="O29" s="24">
         <f>+IF(B29='1'!$D$15,IF(C29='1'!$D$16, '2'!D29,""),"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -5093,11 +5090,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>43</v>
@@ -5109,7 +5106,7 @@
         <v>2006</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K30" s="74">
         <v>7500000</v>
@@ -5122,14 +5119,14 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O30" s="24" t="str">
         <f>+IF(B30='1'!$D$15,IF(C30='1'!$D$16, '2'!D30,""),"")</f>
-        <v/>
+        <v>13/3</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5147,7 +5144,7 @@
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>43</v>
@@ -5170,14 +5167,14 @@
       </c>
       <c r="N31" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="24" t="str">
+        <v>29</v>
+      </c>
+      <c r="O31" s="24">
         <f>+IF(B31='1'!$D$15,IF(C31='1'!$D$16, '2'!D31,""),"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5197,7 +5194,7 @@
         <v>14210</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>43</v>
@@ -5222,14 +5219,14 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="24" t="str">
+        <v>30</v>
+      </c>
+      <c r="O32" s="24">
         <f>+IF(B32='1'!$D$15,IF(C32='1'!$D$16, '2'!D32,""),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5249,7 +5246,7 @@
         <v>14210</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>43</v>
@@ -5274,14 +5271,14 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="24" t="str">
+        <v>31</v>
+      </c>
+      <c r="O33" s="24">
         <f>+IF(B33='1'!$D$15,IF(C33='1'!$D$16, '2'!D33,""),"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5299,7 +5296,7 @@
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>43</v>
@@ -5311,7 +5308,7 @@
         <v>2008</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K34" s="74">
         <v>5000000</v>
@@ -5324,14 +5321,14 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="24" t="str">
+        <v>32</v>
+      </c>
+      <c r="O34" s="24">
         <f>+IF(B34='1'!$D$15,IF(C34='1'!$D$16, '2'!D34,""),"")</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5351,7 +5348,7 @@
         <v>14210</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>43</v>
@@ -5374,14 +5371,14 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="24" t="str">
+        <v>33</v>
+      </c>
+      <c r="O35" s="24">
         <f>+IF(B35='1'!$D$15,IF(C35='1'!$D$16, '2'!D35,""),"")</f>
-        <v/>
+        <v>52</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5399,7 +5396,7 @@
         <v>14210</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>43</v>
@@ -5409,7 +5406,7 @@
       </c>
       <c r="I36" s="72"/>
       <c r="J36" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K36" s="74">
         <v>5000000</v>
@@ -5422,14 +5419,14 @@
       </c>
       <c r="N36" s="24">
         <f t="shared" ref="N36:N67" si="1">+IF(O36="",0,N35+1)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="24" t="str">
+        <v>34</v>
+      </c>
+      <c r="O36" s="24">
         <f>+IF(B36='1'!$D$15,IF(C36='1'!$D$16, '2'!D36,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5449,7 +5446,7 @@
         <v>14210</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>43</v>
@@ -5461,7 +5458,7 @@
         <v>2015</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K37" s="74">
         <v>5000000</v>
@@ -5474,14 +5471,14 @@
       </c>
       <c r="N37" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="24" t="str">
+        <v>35</v>
+      </c>
+      <c r="O37" s="24">
         <f>+IF(B37='1'!$D$15,IF(C37='1'!$D$16, '2'!D37,""),"")</f>
-        <v/>
+        <v>51</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5501,7 +5498,7 @@
         <v>14210</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>43</v>
@@ -5513,7 +5510,7 @@
         <v>2007</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K38" s="74">
         <v>5000000</v>
@@ -5526,14 +5523,14 @@
       </c>
       <c r="N38" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="24" t="str">
+        <v>36</v>
+      </c>
+      <c r="O38" s="24">
         <f>+IF(B38='1'!$D$15,IF(C38='1'!$D$16, '2'!D38,""),"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5553,7 +5550,7 @@
         <v>14220</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>43</v>
@@ -5565,7 +5562,7 @@
         <v>2024</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K39" s="74">
         <v>8000000</v>
@@ -5578,14 +5575,14 @@
       </c>
       <c r="N39" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O39" s="24" t="str">
         <f>+IF(B39='1'!$D$15,IF(C39='1'!$D$16, '2'!D39,""),"")</f>
-        <v/>
+        <v>15А</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5603,7 +5600,7 @@
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>43</v>
@@ -5615,7 +5612,7 @@
         <v>2016</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K40" s="74">
         <v>6600000</v>
@@ -5628,14 +5625,14 @@
       </c>
       <c r="N40" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="24" t="str">
+        <v>38</v>
+      </c>
+      <c r="O40" s="24">
         <f>+IF(B40='1'!$D$15,IF(C40='1'!$D$16, '2'!D40,""),"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="P40" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5655,7 +5652,7 @@
         <v>14230</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>43</v>
@@ -5667,7 +5664,7 @@
         <v>2014</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K41" s="74">
         <v>6500000</v>
@@ -5680,14 +5677,14 @@
       </c>
       <c r="N41" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="24" t="str">
+        <v>39</v>
+      </c>
+      <c r="O41" s="24">
         <f>+IF(B41='1'!$D$15,IF(C41='1'!$D$16, '2'!D41,""),"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5707,7 +5704,7 @@
         <v>14230</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>43</v>
@@ -5719,7 +5716,7 @@
         <v>2022</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K42" s="74">
         <v>8000000</v>
@@ -5732,14 +5729,14 @@
       </c>
       <c r="N42" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="24" t="str">
+        <v>40</v>
+      </c>
+      <c r="O42" s="24">
         <f>+IF(B42='1'!$D$15,IF(C42='1'!$D$16, '2'!D42,""),"")</f>
-        <v/>
+        <v>42</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5759,7 +5756,7 @@
         <v>14230</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>43</v>
@@ -5784,14 +5781,14 @@
       </c>
       <c r="N43" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="24" t="str">
+        <v>41</v>
+      </c>
+      <c r="O43" s="24">
         <f>+IF(B43='1'!$D$15,IF(C43='1'!$D$16, '2'!D43,""),"")</f>
-        <v/>
+        <v>62</v>
       </c>
       <c r="P43" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5809,7 +5806,7 @@
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>43</v>
@@ -5821,7 +5818,7 @@
         <v>2013</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K44" s="74">
         <v>6300000</v>
@@ -5834,14 +5831,14 @@
       </c>
       <c r="N44" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="24" t="str">
+        <v>42</v>
+      </c>
+      <c r="O44" s="24">
         <f>+IF(B44='1'!$D$15,IF(C44='1'!$D$16, '2'!D44,""),"")</f>
-        <v/>
+        <v>46</v>
       </c>
       <c r="P44" s="21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5861,7 +5858,7 @@
         <v>14251</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>43</v>
@@ -5893,7 +5890,7 @@
         <v/>
       </c>
       <c r="P45" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5913,7 +5910,7 @@
         <v>14251</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>43</v>
@@ -5945,7 +5942,7 @@
         <v/>
       </c>
       <c r="P46" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5959,13 +5956,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E47" s="21">
         <v>14251</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>43</v>
@@ -5997,7 +5994,7 @@
         <v/>
       </c>
       <c r="P47" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -6017,7 +6014,7 @@
         <v>14251</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>43</v>
@@ -6049,7 +6046,7 @@
         <v/>
       </c>
       <c r="P48" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -6069,7 +6066,7 @@
         <v>14251</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>43</v>
@@ -6101,7 +6098,7 @@
         <v/>
       </c>
       <c r="P49" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6121,7 +6118,7 @@
         <v>14251</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>43</v>
@@ -6153,7 +6150,7 @@
         <v/>
       </c>
       <c r="P50" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6167,13 +6164,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E51" s="21">
         <v>14252</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>43</v>
@@ -6205,7 +6202,7 @@
         <v/>
       </c>
       <c r="P51" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6225,7 +6222,7 @@
         <v>14252</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>43</v>
@@ -6237,7 +6234,7 @@
         <v>2021</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K52" s="74">
         <v>7000000</v>
@@ -6257,7 +6254,7 @@
         <v/>
       </c>
       <c r="P52" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6277,7 +6274,7 @@
         <v>14252</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>43</v>
@@ -6309,7 +6306,7 @@
         <v/>
       </c>
       <c r="P53" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6329,7 +6326,7 @@
         <v>14252</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>43</v>
@@ -6361,7 +6358,7 @@
         <v/>
       </c>
       <c r="P54" s="21" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6381,7 +6378,7 @@
         <v>14252</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>43</v>
@@ -6413,7 +6410,7 @@
         <v/>
       </c>
       <c r="P55" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6433,7 +6430,7 @@
         <v>14250</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>43</v>
@@ -6465,7 +6462,7 @@
         <v/>
       </c>
       <c r="P56" s="21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6485,7 +6482,7 @@
         <v>14250</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>43</v>
@@ -6515,7 +6512,7 @@
         <v/>
       </c>
       <c r="P57" s="21" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6535,7 +6532,7 @@
         <v>14253</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>43</v>
@@ -6567,7 +6564,7 @@
         <v/>
       </c>
       <c r="P58" s="21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6587,7 +6584,7 @@
         <v>14201</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>43</v>
@@ -6619,7 +6616,7 @@
         <v/>
       </c>
       <c r="P59" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6669,7 +6666,7 @@
         <v/>
       </c>
       <c r="P60" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6689,7 +6686,7 @@
         <v>14201</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>43</v>
@@ -6701,7 +6698,7 @@
         <v>2024</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K61" s="74">
         <v>8000000</v>
@@ -6721,7 +6718,7 @@
         <v/>
       </c>
       <c r="P61" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6735,13 +6732,13 @@
         <v>6</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E62" s="21">
         <v>14193</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>43</v>
@@ -6753,7 +6750,7 @@
         <v>2012</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K62" s="74">
         <v>4500000</v>
@@ -6773,7 +6770,7 @@
         <v/>
       </c>
       <c r="P62" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6791,7 +6788,7 @@
       </c>
       <c r="E63" s="21"/>
       <c r="F63" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>43</v>
@@ -6803,7 +6800,7 @@
         <v>2009</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K63" s="74">
         <v>4900000</v>
@@ -6823,7 +6820,7 @@
         <v/>
       </c>
       <c r="P63" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6843,7 +6840,7 @@
         <v>14200</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>43</v>
@@ -6875,7 +6872,7 @@
         <v/>
       </c>
       <c r="P64" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6895,7 +6892,7 @@
         <v>14200</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>43</v>
@@ -6927,7 +6924,7 @@
         <v/>
       </c>
       <c r="P65" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6947,7 +6944,7 @@
         <v>14200</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>43</v>
@@ -6959,7 +6956,7 @@
         <v>2009</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K66" s="74">
         <v>12000000</v>
@@ -6979,7 +6976,7 @@
         <v/>
       </c>
       <c r="P66" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6997,7 +6994,7 @@
       </c>
       <c r="E67" s="21"/>
       <c r="F67" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>43</v>
@@ -7009,7 +7006,7 @@
         <v>1996</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K67" s="74">
         <v>6000000</v>
@@ -7029,7 +7026,7 @@
         <v/>
       </c>
       <c r="P67" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -7045,7 +7042,7 @@
       <c r="D68" s="24"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>43</v>
@@ -7077,7 +7074,7 @@
         <v/>
       </c>
       <c r="P68" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7095,7 +7092,7 @@
       </c>
       <c r="E69" s="21"/>
       <c r="F69" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>43</v>
@@ -7107,7 +7104,7 @@
         <v>1960</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K69" s="74">
         <v>5500000</v>
@@ -7127,7 +7124,7 @@
         <v/>
       </c>
       <c r="P69" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7153,7 +7150,7 @@
       </c>
       <c r="I70" s="72"/>
       <c r="J70" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K70" s="74">
         <v>5000000</v>
@@ -7173,7 +7170,7 @@
         <v/>
       </c>
       <c r="P70" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7193,7 +7190,7 @@
         <v>14200</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>43</v>
@@ -7225,7 +7222,7 @@
         <v/>
       </c>
       <c r="P71" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -7245,7 +7242,7 @@
         <v>14200</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>43</v>
@@ -7277,7 +7274,7 @@
         <v/>
       </c>
       <c r="P72" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -7295,7 +7292,7 @@
       </c>
       <c r="E73" s="21"/>
       <c r="F73" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>43</v>
@@ -7307,7 +7304,7 @@
         <v>2008</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K73" s="74">
         <v>5500000</v>
@@ -7327,7 +7324,7 @@
         <v/>
       </c>
       <c r="P73" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -7347,7 +7344,7 @@
         <v>14191</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>43</v>
@@ -7359,7 +7356,7 @@
         <v>2009</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K74" s="74">
         <v>4000000</v>
@@ -7379,7 +7376,7 @@
         <v/>
       </c>
       <c r="P74" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -7399,7 +7396,7 @@
         <v>14191</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>43</v>
@@ -7411,7 +7408,7 @@
         <v>2007</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K75" s="74">
         <v>4000000</v>
@@ -7431,7 +7428,7 @@
         <v/>
       </c>
       <c r="P75" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -7451,7 +7448,7 @@
         <v>14191</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>43</v>
@@ -7483,7 +7480,7 @@
         <v/>
       </c>
       <c r="P76" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -7503,7 +7500,7 @@
         <v>14192</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>43</v>
@@ -7535,7 +7532,7 @@
         <v/>
       </c>
       <c r="P77" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -7549,13 +7546,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E78" s="21">
         <v>14192</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>43</v>
@@ -7587,7 +7584,7 @@
         <v/>
       </c>
       <c r="P78" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -7637,7 +7634,7 @@
         <v/>
       </c>
       <c r="P79" s="70" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -7657,7 +7654,7 @@
         <v>14193</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>43</v>
@@ -7669,7 +7666,7 @@
         <v>2017</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K80" s="74">
         <v>4500000</v>
@@ -7689,7 +7686,7 @@
         <v/>
       </c>
       <c r="P80" s="70" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -7709,7 +7706,7 @@
         <v>14191</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>43</v>
@@ -7721,7 +7718,7 @@
         <v>2025</v>
       </c>
       <c r="J81" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K81" s="74">
         <v>5100000</v>
@@ -7741,7 +7738,7 @@
         <v/>
       </c>
       <c r="P81" s="70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -7761,7 +7758,7 @@
         <v>14182</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>43</v>
@@ -7793,7 +7790,7 @@
         <v/>
       </c>
       <c r="P82" s="70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -7811,7 +7808,7 @@
       </c>
       <c r="E83" s="21"/>
       <c r="F83" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>43</v>
@@ -7823,7 +7820,7 @@
         <v>2017</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K83" s="74">
         <v>3600000</v>
@@ -7843,7 +7840,7 @@
         <v/>
       </c>
       <c r="P83" s="70" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -7861,7 +7858,7 @@
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>43</v>
@@ -7873,7 +7870,7 @@
         <v>2012</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K84" s="74">
         <v>3000000</v>
@@ -7893,7 +7890,7 @@
         <v/>
       </c>
       <c r="P84" s="70" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
@@ -7911,7 +7908,7 @@
       </c>
       <c r="E85" s="21"/>
       <c r="F85" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>43</v>
@@ -7923,7 +7920,7 @@
         <v>2021</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K85" s="74">
         <v>4200000</v>
@@ -7943,7 +7940,7 @@
         <v/>
       </c>
       <c r="P85" s="70" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -7957,13 +7954,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E86" s="21">
         <v>14181</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>43</v>
@@ -7975,7 +7972,7 @@
         <v>2021</v>
       </c>
       <c r="J86" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K86" s="74">
         <v>3500000</v>
@@ -7995,7 +7992,7 @@
         <v/>
       </c>
       <c r="P86" s="70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -8009,13 +8006,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E87" s="21">
         <v>14181</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>43</v>
@@ -8047,7 +8044,7 @@
         <v/>
       </c>
       <c r="P87" s="70" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
@@ -8067,7 +8064,7 @@
         <v>14181</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>43</v>
@@ -8099,7 +8096,7 @@
         <v/>
       </c>
       <c r="P88" s="70" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
@@ -8119,7 +8116,7 @@
         <v>14181</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>43</v>
@@ -8151,7 +8148,7 @@
         <v/>
       </c>
       <c r="P89" s="70" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -8171,7 +8168,7 @@
         <v>14181</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>43</v>
@@ -8203,7 +8200,7 @@
         <v/>
       </c>
       <c r="P90" s="70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -8223,7 +8220,7 @@
         <v>14181</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>43</v>
@@ -8235,7 +8232,7 @@
         <v>2018</v>
       </c>
       <c r="J91" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K91" s="74">
         <v>3500000</v>
@@ -8255,7 +8252,7 @@
         <v/>
       </c>
       <c r="P91" s="70" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
@@ -8271,7 +8268,7 @@
       <c r="D92" s="24"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>43</v>
@@ -8301,7 +8298,7 @@
         <v/>
       </c>
       <c r="P92" s="70" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
@@ -8331,7 +8328,7 @@
         <v>2021</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K93" s="74">
         <v>3500000</v>
@@ -8351,7 +8348,7 @@
         <v/>
       </c>
       <c r="P93" s="70" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -8371,7 +8368,7 @@
         <v>14180</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>43</v>
@@ -8383,7 +8380,7 @@
         <v>2016</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K94" s="74">
         <v>4200000</v>
@@ -8403,7 +8400,7 @@
         <v/>
       </c>
       <c r="P94" s="70" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -8417,13 +8414,13 @@
         <v>1</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E95" s="21">
         <v>15160</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>43</v>
@@ -8455,7 +8452,7 @@
         <v/>
       </c>
       <c r="P95" s="70" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -8475,7 +8472,7 @@
         <v>15160</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>43</v>
@@ -8507,7 +8504,7 @@
         <v/>
       </c>
       <c r="P96" s="70" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
@@ -8521,13 +8518,13 @@
         <v>1</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E97" s="21">
         <v>15160</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>43</v>
@@ -8559,7 +8556,7 @@
         <v/>
       </c>
       <c r="P97" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -8577,7 +8574,7 @@
       </c>
       <c r="E98" s="21"/>
       <c r="F98" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>43</v>
@@ -8589,7 +8586,7 @@
         <v>2009</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K98" s="74">
         <v>6300000</v>
@@ -8609,7 +8606,7 @@
         <v/>
       </c>
       <c r="P98" s="70" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -8629,7 +8626,7 @@
         <v>15160</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>43</v>
@@ -8661,7 +8658,7 @@
         <v/>
       </c>
       <c r="P99" s="70" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -8675,13 +8672,13 @@
         <v>1</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E100" s="21">
         <v>15160</v>
       </c>
       <c r="F100" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>43</v>
@@ -8713,7 +8710,7 @@
         <v/>
       </c>
       <c r="P100" s="70" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -8733,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>43</v>
@@ -8745,7 +8742,7 @@
         <v>2005</v>
       </c>
       <c r="J101" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K101" s="74">
         <v>4500000</v>
@@ -8765,7 +8762,7 @@
         <v/>
       </c>
       <c r="P101" s="70" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -8783,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>43</v>
@@ -8811,7 +8808,7 @@
         <v/>
       </c>
       <c r="P102" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -8825,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E103" s="21">
         <v>15170</v>
@@ -8843,7 +8840,7 @@
         <v>2018</v>
       </c>
       <c r="J103" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K103" s="74">
         <v>4500000</v>
@@ -8863,7 +8860,7 @@
         <v/>
       </c>
       <c r="P103" s="70" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -8915,7 +8912,7 @@
         <v/>
       </c>
       <c r="P104" s="70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -8935,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>43</v>
@@ -8947,7 +8944,7 @@
         <v>2006</v>
       </c>
       <c r="J105" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K105" s="74">
         <v>5738400</v>
@@ -8967,7 +8964,7 @@
         <v/>
       </c>
       <c r="P105" s="70" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -8987,7 +8984,7 @@
         <v>15172</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>43</v>
@@ -9019,7 +9016,7 @@
         <v/>
       </c>
       <c r="P106" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -9039,7 +9036,7 @@
         <v>15171</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>43</v>
@@ -9071,7 +9068,7 @@
         <v/>
       </c>
       <c r="P107" s="70" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
@@ -9091,7 +9088,7 @@
         <v>15171</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>43</v>
@@ -9123,7 +9120,7 @@
         <v/>
       </c>
       <c r="P108" s="70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -9143,7 +9140,7 @@
         <v>15171</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>43</v>
@@ -9175,7 +9172,7 @@
         <v/>
       </c>
       <c r="P109" s="70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -9195,7 +9192,7 @@
         <v>15171</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>43</v>
@@ -9207,7 +9204,7 @@
         <v>2011</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K110" s="74">
         <v>3500000</v>
@@ -9227,7 +9224,7 @@
         <v/>
       </c>
       <c r="P110" s="70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -9247,7 +9244,7 @@
         <v>15171</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>43</v>
@@ -9259,7 +9256,7 @@
         <v>2013</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K111" s="74">
         <v>3500000</v>
@@ -9279,7 +9276,7 @@
         <v/>
       </c>
       <c r="P111" s="70" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
@@ -9299,7 +9296,7 @@
         <v>15171</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>43</v>
@@ -9311,7 +9308,7 @@
         <v>2014</v>
       </c>
       <c r="J112" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K112" s="74">
         <v>4000000</v>
@@ -9331,7 +9328,7 @@
         <v/>
       </c>
       <c r="P112" s="70" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
@@ -9351,7 +9348,7 @@
         <v>15171</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>43</v>
@@ -9361,7 +9358,7 @@
       </c>
       <c r="I113" s="72"/>
       <c r="J113" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K113" s="74">
         <v>3500000</v>
@@ -9381,7 +9378,7 @@
         <v/>
       </c>
       <c r="P113" s="70" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
@@ -9399,7 +9396,7 @@
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>43</v>
@@ -9411,7 +9408,7 @@
         <v>2009</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K114" s="74">
         <v>7500000</v>
@@ -9431,7 +9428,7 @@
         <v/>
       </c>
       <c r="P114" s="70" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
@@ -9451,7 +9448,7 @@
         <v>15172</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>43</v>
@@ -9483,7 +9480,7 @@
         <v/>
       </c>
       <c r="P115" s="70" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
@@ -9503,7 +9500,7 @@
         <v>15172</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G116" s="21" t="s">
         <v>43</v>
@@ -9535,7 +9532,7 @@
         <v/>
       </c>
       <c r="P116" s="70" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
@@ -9549,13 +9546,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E117" s="21">
         <v>15170</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G117" s="21" t="s">
         <v>43</v>
@@ -9587,7 +9584,7 @@
         <v/>
       </c>
       <c r="P117" s="70" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
@@ -9607,7 +9604,7 @@
         <v>15141</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>43</v>
@@ -9639,7 +9636,7 @@
         <v/>
       </c>
       <c r="P118" s="70" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
@@ -9659,7 +9656,7 @@
         <v>15150</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G119" s="21" t="s">
         <v>43</v>
@@ -9691,7 +9688,7 @@
         <v/>
       </c>
       <c r="P119" s="70" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
@@ -9705,13 +9702,13 @@
         <v>5</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E120" s="21">
         <v>15150</v>
       </c>
       <c r="F120" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G120" s="21" t="s">
         <v>43</v>
@@ -9743,7 +9740,7 @@
         <v/>
       </c>
       <c r="P120" s="70" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
@@ -9763,7 +9760,7 @@
         <v>15150</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>43</v>
@@ -9795,7 +9792,7 @@
         <v/>
       </c>
       <c r="P121" s="70" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
@@ -9815,7 +9812,7 @@
         <v>15150</v>
       </c>
       <c r="F122" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>43</v>
@@ -9846,7 +9843,7 @@
         <v/>
       </c>
       <c r="P122" s="70" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
@@ -9866,7 +9863,7 @@
         <v>13380</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G123" s="21" t="s">
         <v>43</v>
@@ -9898,7 +9895,7 @@
         <v/>
       </c>
       <c r="P123" s="70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
@@ -9918,7 +9915,7 @@
         <v>13380</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>43</v>
@@ -9950,7 +9947,7 @@
         <v/>
       </c>
       <c r="P124" s="70" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
@@ -9970,7 +9967,7 @@
         <v>13380</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>43</v>
@@ -10002,7 +9999,7 @@
         <v/>
       </c>
       <c r="P125" s="70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
@@ -10022,7 +10019,7 @@
         <v>13380</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>43</v>
@@ -10054,7 +10051,7 @@
         <v/>
       </c>
       <c r="P126" s="70" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
@@ -10068,13 +10065,13 @@
         <v>2</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E127" s="21">
         <v>13361</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G127" s="21" t="s">
         <v>43</v>
@@ -10106,7 +10103,7 @@
         <v/>
       </c>
       <c r="P127" s="70" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
@@ -10126,7 +10123,7 @@
         <v>13381</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G128" s="21" t="s">
         <v>43</v>
@@ -10158,7 +10155,7 @@
         <v/>
       </c>
       <c r="P128" s="70" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
@@ -10172,13 +10169,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E129" s="21">
         <v>13381</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G129" s="21" t="s">
         <v>43</v>
@@ -10210,7 +10207,7 @@
         <v/>
       </c>
       <c r="P129" s="70" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
@@ -10224,11 +10221,11 @@
         <v>3</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G130" s="21" t="s">
         <v>43</v>
@@ -10240,7 +10237,7 @@
         <v>2017</v>
       </c>
       <c r="J130" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K130" s="73">
         <v>6325200</v>
@@ -10260,7 +10257,7 @@
         <v/>
       </c>
       <c r="P130" s="70" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
@@ -10278,7 +10275,7 @@
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G131" s="21" t="s">
         <v>43</v>
@@ -10290,7 +10287,7 @@
         <v>2019</v>
       </c>
       <c r="J131" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K131" s="73">
         <v>5900400</v>
@@ -10310,7 +10307,7 @@
         <v/>
       </c>
       <c r="P131" s="70" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
@@ -10328,7 +10325,7 @@
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G132" s="21" t="s">
         <v>43</v>
@@ -10340,7 +10337,7 @@
         <v>2018</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K132" s="73">
         <v>6004800</v>
@@ -10360,7 +10357,7 @@
         <v/>
       </c>
       <c r="P132" s="70" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
@@ -10374,13 +10371,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E133" s="21">
         <v>13380</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G133" s="21" t="s">
         <v>43</v>
@@ -10412,7 +10409,7 @@
         <v/>
       </c>
       <c r="P133" s="70" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
@@ -10432,7 +10429,7 @@
         <v>13370</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G134" s="21" t="s">
         <v>43</v>
@@ -10444,7 +10441,7 @@
         <v>2012</v>
       </c>
       <c r="J134" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K134" s="73">
         <v>5972400</v>
@@ -10464,7 +10461,7 @@
         <v/>
       </c>
       <c r="P134" s="70" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
@@ -10482,7 +10479,7 @@
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G135" s="21" t="s">
         <v>43</v>
@@ -10494,7 +10491,7 @@
         <v>2014</v>
       </c>
       <c r="J135" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K135" s="73">
         <v>6325200</v>
@@ -10514,7 +10511,7 @@
         <v/>
       </c>
       <c r="P135" s="70" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
@@ -10534,7 +10531,7 @@
         <v>13370</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G136" s="21" t="s">
         <v>43</v>
@@ -10546,7 +10543,7 @@
         <v>2015</v>
       </c>
       <c r="J136" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K136" s="73">
         <v>6116400</v>
@@ -10566,7 +10563,7 @@
         <v/>
       </c>
       <c r="P136" s="70" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
@@ -10586,7 +10583,7 @@
         <v>13312</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G137" s="21" t="s">
         <v>43</v>
@@ -10618,7 +10615,7 @@
         <v/>
       </c>
       <c r="P137" s="70" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
@@ -10632,13 +10629,13 @@
         <v>26</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E138" s="21">
         <v>13312</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G138" s="21" t="s">
         <v>43</v>
@@ -10670,7 +10667,7 @@
         <v/>
       </c>
       <c r="P138" s="70" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
@@ -10684,13 +10681,13 @@
         <v>26</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E139" s="21">
         <v>13312</v>
       </c>
       <c r="F139" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G139" s="21" t="s">
         <v>43</v>
@@ -10722,7 +10719,7 @@
         <v/>
       </c>
       <c r="P139" s="70" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
@@ -10742,7 +10739,7 @@
         <v>13312</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G140" s="21" t="s">
         <v>43</v>
@@ -10774,7 +10771,7 @@
         <v/>
       </c>
       <c r="P140" s="70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
@@ -10794,7 +10791,7 @@
         <v>13312</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G141" s="21" t="s">
         <v>43</v>
@@ -10826,7 +10823,7 @@
         <v/>
       </c>
       <c r="P141" s="70" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
@@ -10856,7 +10853,7 @@
         <v>2015</v>
       </c>
       <c r="J142" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K142" s="73">
         <v>5900400</v>
@@ -10876,7 +10873,7 @@
         <v/>
       </c>
       <c r="P142" s="70" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
@@ -10890,13 +10887,13 @@
         <v>32</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E143" s="21">
         <v>13292</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>43</v>
@@ -10908,7 +10905,7 @@
         <v>2015</v>
       </c>
       <c r="J143" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K143" s="73">
         <v>6000000</v>
@@ -10928,7 +10925,7 @@
         <v/>
       </c>
       <c r="P143" s="70" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
@@ -10942,13 +10939,13 @@
         <v>43</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E144" s="21">
         <v>13374</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G144" s="21" t="s">
         <v>43</v>
@@ -10960,7 +10957,7 @@
         <v>2020</v>
       </c>
       <c r="J144" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K144" s="74">
         <v>6500000</v>
@@ -10980,7 +10977,7 @@
         <v/>
       </c>
       <c r="P144" s="70" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
@@ -10994,13 +10991,13 @@
         <v>43</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E145" s="21">
         <v>13374</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G145" s="21" t="s">
         <v>43</v>
@@ -11012,7 +11009,7 @@
         <v>2021</v>
       </c>
       <c r="J145" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K145" s="74">
         <v>6500000</v>
@@ -11032,7 +11029,7 @@
         <v/>
       </c>
       <c r="P145" s="70" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
@@ -11052,7 +11049,7 @@
         <v>17030</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G146" s="21" t="s">
         <v>43</v>
@@ -11084,7 +11081,7 @@
         <v/>
       </c>
       <c r="P146" s="70" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
@@ -11102,7 +11099,7 @@
       </c>
       <c r="E147" s="21"/>
       <c r="F147" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G147" s="21" t="s">
         <v>43</v>
@@ -11114,7 +11111,7 @@
         <v>2021</v>
       </c>
       <c r="J147" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K147" s="74">
         <v>5100000</v>
@@ -11134,7 +11131,7 @@
         <v/>
       </c>
       <c r="P147" s="70" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
@@ -11152,7 +11149,7 @@
       </c>
       <c r="E148" s="21"/>
       <c r="F148" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G148" s="21" t="s">
         <v>43</v>
@@ -11162,7 +11159,7 @@
       </c>
       <c r="I148" s="72"/>
       <c r="J148" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K148" s="74">
         <v>5100000</v>
@@ -11182,7 +11179,7 @@
         <v/>
       </c>
       <c r="P148" s="70" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
@@ -11200,7 +11197,7 @@
       </c>
       <c r="E149" s="21"/>
       <c r="F149" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G149" s="21" t="s">
         <v>43</v>
@@ -11212,7 +11209,7 @@
         <v>2019</v>
       </c>
       <c r="J149" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K149" s="74">
         <v>5100000</v>
@@ -11232,7 +11229,7 @@
         <v/>
       </c>
       <c r="P149" s="70" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
@@ -11246,13 +11243,13 @@
         <v>4</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E150" s="21">
         <v>17110</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G150" s="21" t="s">
         <v>43</v>
@@ -11284,7 +11281,7 @@
         <v/>
       </c>
       <c r="P150" s="70" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
@@ -11298,13 +11295,13 @@
         <v>5</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E151" s="21">
         <v>17110</v>
       </c>
       <c r="F151" s="70" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G151" s="21" t="s">
         <v>43</v>
@@ -11336,7 +11333,7 @@
         <v/>
       </c>
       <c r="P151" s="70" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
@@ -11356,7 +11353,7 @@
         <v>17110</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G152" s="21" t="s">
         <v>43</v>
@@ -11388,7 +11385,7 @@
         <v/>
       </c>
       <c r="P152" s="70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
@@ -11408,7 +11405,7 @@
         <v>17023</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G153" s="21" t="s">
         <v>43</v>
@@ -11440,7 +11437,7 @@
         <v/>
       </c>
       <c r="P153" s="70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
@@ -11454,13 +11451,13 @@
         <v>15</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E154" s="21">
         <v>17011</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G154" s="21" t="s">
         <v>43</v>
@@ -11493,7 +11490,7 @@
         <v/>
       </c>
       <c r="P154" s="70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
@@ -11513,7 +11510,7 @@
         <v>17010</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G155" s="21" t="s">
         <v>43</v>
@@ -11545,7 +11542,7 @@
         <v/>
       </c>
       <c r="P155" s="70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
@@ -11565,7 +11562,7 @@
         <v>17011</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G156" s="21" t="s">
         <v>43</v>
@@ -11597,7 +11594,7 @@
         <v/>
       </c>
       <c r="P156" s="70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
@@ -11611,13 +11608,13 @@
         <v>15</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E157" s="21">
         <v>17011</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>43</v>
@@ -11649,7 +11646,7 @@
         <v/>
       </c>
       <c r="P157" s="70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
@@ -11669,7 +11666,7 @@
         <v>17010</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G158" s="21" t="s">
         <v>43</v>
@@ -11701,7 +11698,7 @@
         <v/>
       </c>
       <c r="P158" s="70" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
@@ -11721,7 +11718,7 @@
         <v>17011</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>43</v>
@@ -11753,7 +11750,7 @@
         <v/>
       </c>
       <c r="P159" s="70" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
@@ -11767,13 +11764,13 @@
         <v>17</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E160" s="21">
         <v>17012</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>43</v>
@@ -11785,7 +11782,7 @@
         <v>2024</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K160" s="74">
         <v>8500000</v>
@@ -11805,7 +11802,7 @@
         <v/>
       </c>
       <c r="P160" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
@@ -11825,7 +11822,7 @@
         <v>17012</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G161" s="21" t="s">
         <v>43</v>
@@ -11837,7 +11834,7 @@
         <v>2017</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K161" s="74">
         <v>8500000</v>
@@ -11857,7 +11854,7 @@
         <v/>
       </c>
       <c r="P161" s="70" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
@@ -11871,13 +11868,13 @@
         <v>18</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E162" s="21">
         <v>17013</v>
       </c>
       <c r="F162" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G162" s="21" t="s">
         <v>43</v>
@@ -11889,7 +11886,7 @@
         <v>2019</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K162" s="74">
         <v>6500000</v>
@@ -11909,7 +11906,7 @@
         <v/>
       </c>
       <c r="P162" s="70" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
@@ -11929,7 +11926,7 @@
         <v>17013</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G163" s="21" t="s">
         <v>43</v>
@@ -11961,7 +11958,7 @@
         <v/>
       </c>
       <c r="P163" s="70" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
@@ -11981,7 +11978,7 @@
         <v>17013</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G164" s="21" t="s">
         <v>43</v>
@@ -12013,7 +12010,7 @@
         <v/>
       </c>
       <c r="P164" s="70" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -12033,7 +12030,7 @@
         <v>17013</v>
       </c>
       <c r="F165" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G165" s="21" t="s">
         <v>43</v>
@@ -12065,7 +12062,7 @@
         <v/>
       </c>
       <c r="P165" s="70" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
@@ -12079,13 +12076,13 @@
         <v>18</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E166" s="21">
         <v>17013</v>
       </c>
       <c r="F166" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G166" s="21" t="s">
         <v>43</v>
@@ -12117,7 +12114,7 @@
         <v/>
       </c>
       <c r="P166" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
@@ -12137,7 +12134,7 @@
         <v>17013</v>
       </c>
       <c r="F167" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G167" s="21" t="s">
         <v>43</v>
@@ -12169,7 +12166,7 @@
         <v/>
       </c>
       <c r="P167" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
@@ -12189,7 +12186,7 @@
         <v>17013</v>
       </c>
       <c r="F168" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G168" s="21" t="s">
         <v>43</v>
@@ -12221,7 +12218,7 @@
         <v/>
       </c>
       <c r="P168" s="70" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
@@ -12235,13 +12232,13 @@
         <v>19</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E169" s="21">
         <v>17042</v>
       </c>
       <c r="F169" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G169" s="21" t="s">
         <v>43</v>
@@ -12253,7 +12250,7 @@
         <v>2023</v>
       </c>
       <c r="J169" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K169" s="74">
         <v>5500000</v>
@@ -12273,7 +12270,7 @@
         <v/>
       </c>
       <c r="P169" s="70" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
@@ -12293,7 +12290,7 @@
         <v>17042</v>
       </c>
       <c r="F170" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G170" s="21" t="s">
         <v>43</v>
@@ -12305,7 +12302,7 @@
         <v>2023</v>
       </c>
       <c r="J170" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K170" s="74">
         <v>5500000</v>
@@ -12325,7 +12322,7 @@
         <v/>
       </c>
       <c r="P170" s="70" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
@@ -12345,7 +12342,7 @@
         <v>17042</v>
       </c>
       <c r="F171" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G171" s="21" t="s">
         <v>43</v>
@@ -12377,7 +12374,7 @@
         <v/>
       </c>
       <c r="P171" s="70" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
@@ -12397,7 +12394,7 @@
         <v>17042</v>
       </c>
       <c r="F172" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G172" s="21" t="s">
         <v>43</v>
@@ -12429,7 +12426,7 @@
         <v/>
       </c>
       <c r="P172" s="70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
@@ -12449,7 +12446,7 @@
         <v>17042</v>
       </c>
       <c r="F173" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G173" s="21" t="s">
         <v>43</v>
@@ -12481,7 +12478,7 @@
         <v/>
       </c>
       <c r="P173" s="70" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
@@ -12501,7 +12498,7 @@
         <v>17042</v>
       </c>
       <c r="F174" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G174" s="21" t="s">
         <v>43</v>
@@ -12534,7 +12531,7 @@
         <v/>
       </c>
       <c r="P174" s="70" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
@@ -12554,7 +12551,7 @@
         <v>17042</v>
       </c>
       <c r="F175" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G175" s="21" t="s">
         <v>43</v>
@@ -12587,7 +12584,7 @@
         <v/>
       </c>
       <c r="P175" s="70" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -12607,7 +12604,7 @@
         <v>17042</v>
       </c>
       <c r="F176" s="21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G176" s="21" t="s">
         <v>43</v>
@@ -12640,7 +12637,7 @@
         <v/>
       </c>
       <c r="P176" s="70" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
@@ -12654,13 +12651,13 @@
         <v>24</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E177" s="21">
         <v>17110</v>
       </c>
       <c r="F177" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G177" s="21" t="s">
         <v>43</v>
@@ -12692,7 +12689,7 @@
         <v/>
       </c>
       <c r="P177" s="70" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
@@ -12706,13 +12703,13 @@
         <v>24</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E178" s="21">
         <v>17110</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G178" s="21" t="s">
         <v>43</v>
@@ -12744,7 +12741,7 @@
         <v/>
       </c>
       <c r="P178" s="70" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
@@ -12764,7 +12761,7 @@
         <v>16050</v>
       </c>
       <c r="F179" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G179" s="21" t="s">
         <v>43</v>
@@ -12794,7 +12791,7 @@
         <v/>
       </c>
       <c r="P179" s="70" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
@@ -12814,7 +12811,7 @@
         <v>16050</v>
       </c>
       <c r="F180" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G180" s="21" t="s">
         <v>43</v>
@@ -12846,7 +12843,7 @@
         <v/>
       </c>
       <c r="P180" s="70" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
@@ -12864,7 +12861,7 @@
       </c>
       <c r="E181" s="21"/>
       <c r="F181" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G181" s="21" t="s">
         <v>43</v>
@@ -12876,7 +12873,7 @@
         <v>2009</v>
       </c>
       <c r="J181" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K181" s="74">
         <v>5250000</v>
@@ -12896,7 +12893,7 @@
         <v/>
       </c>
       <c r="P181" s="70" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
@@ -12916,7 +12913,7 @@
         <v>16091</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G182" s="21" t="s">
         <v>43</v>
@@ -12948,7 +12945,7 @@
         <v/>
       </c>
       <c r="P182" s="70" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
@@ -12966,7 +12963,7 @@
       </c>
       <c r="E183" s="21"/>
       <c r="F183" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G183" s="21" t="s">
         <v>43</v>
@@ -12978,7 +12975,7 @@
         <v>2020</v>
       </c>
       <c r="J183" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K183" s="74">
         <v>3870000</v>
@@ -12998,7 +12995,7 @@
         <v/>
       </c>
       <c r="P183" s="70" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
@@ -13018,7 +13015,7 @@
         <v>16067</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G184" s="21" t="s">
         <v>43</v>
@@ -13030,7 +13027,7 @@
         <v>2016</v>
       </c>
       <c r="J184" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K184" s="74">
         <f>+K183</f>
@@ -13051,7 +13048,7 @@
         <v/>
       </c>
       <c r="P184" s="70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
@@ -13071,7 +13068,7 @@
         <v>16020</v>
       </c>
       <c r="F185" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G185" s="21" t="s">
         <v>43</v>
@@ -13083,7 +13080,7 @@
         <v>2020</v>
       </c>
       <c r="J185" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K185" s="74">
         <v>5500000</v>
@@ -13103,7 +13100,7 @@
         <v/>
       </c>
       <c r="P185" s="70" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
@@ -13123,7 +13120,7 @@
         <v>16020</v>
       </c>
       <c r="F186" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G186" s="21" t="s">
         <v>43</v>
@@ -13135,7 +13132,7 @@
         <v>2017</v>
       </c>
       <c r="J186" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K186" s="74">
         <v>6300000</v>
@@ -13155,7 +13152,7 @@
         <v/>
       </c>
       <c r="P186" s="70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
@@ -13169,13 +13166,13 @@
         <v>26</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E187" s="21">
         <v>16020</v>
       </c>
       <c r="F187" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G187" s="21" t="s">
         <v>43</v>
@@ -13187,7 +13184,7 @@
         <v>2023</v>
       </c>
       <c r="J187" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K187" s="74">
         <v>6300000</v>
@@ -13207,7 +13204,7 @@
         <v/>
       </c>
       <c r="P187" s="70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
@@ -13227,7 +13224,7 @@
         <v>16020</v>
       </c>
       <c r="F188" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G188" s="21" t="s">
         <v>43</v>
@@ -13239,7 +13236,7 @@
         <v>2019</v>
       </c>
       <c r="J188" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K188" s="74">
         <v>5000000</v>
@@ -13259,7 +13256,7 @@
         <v/>
       </c>
       <c r="P188" s="70" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
@@ -13279,7 +13276,7 @@
         <v>16020</v>
       </c>
       <c r="F189" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G189" s="21" t="s">
         <v>43</v>
@@ -13311,7 +13308,7 @@
         <v/>
       </c>
       <c r="P189" s="70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
@@ -13329,7 +13326,7 @@
       </c>
       <c r="E190" s="21"/>
       <c r="F190" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G190" s="21" t="s">
         <v>43</v>
@@ -13341,7 +13338,7 @@
         <v>2012</v>
       </c>
       <c r="J190" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K190" s="74">
         <v>4000000</v>
@@ -13361,7 +13358,7 @@
         <v/>
       </c>
       <c r="P190" s="70" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
@@ -13381,7 +13378,7 @@
         <v>16052</v>
       </c>
       <c r="F191" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G191" s="21" t="s">
         <v>43</v>
@@ -13413,7 +13410,7 @@
         <v/>
       </c>
       <c r="P191" s="70" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
@@ -13433,7 +13430,7 @@
         <v>16052</v>
       </c>
       <c r="F192" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G192" s="21" t="s">
         <v>43</v>
@@ -13465,7 +13462,7 @@
         <v/>
       </c>
       <c r="P192" s="70" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
@@ -13485,7 +13482,7 @@
         <v>18072</v>
       </c>
       <c r="F193" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G193" s="21" t="s">
         <v>43</v>
@@ -13517,7 +13514,7 @@
         <v/>
       </c>
       <c r="P193" s="70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
@@ -13536,10 +13533,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG195"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13600,7 +13598,7 @@
       </c>
       <c r="J1" s="90"/>
       <c r="K1" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>33</v>
@@ -13654,14 +13652,14 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="24" t="str">
+        <v>42</v>
+      </c>
+      <c r="F2" s="24">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>46</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>173</v>
+        <v>626</v>
       </c>
       <c r="H2" s="24">
         <v>0.7</v>
@@ -13747,11 +13745,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="24" t="str">
+        <v>41</v>
+      </c>
+      <c r="F3" s="24">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>62</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13785,7 +13783,7 @@
         <v>0.95</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T3" s="4">
         <v>0.9</v>
@@ -13841,11 +13839,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="24" t="str">
+        <v>40</v>
+      </c>
+      <c r="F4" s="24">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>42</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13872,7 +13870,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T4" s="4">
         <v>0.8</v>
@@ -13910,14 +13908,14 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="24" t="str">
+        <v>39</v>
+      </c>
+      <c r="F5" s="24">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H5" s="24">
         <v>0.5</v>
@@ -13935,7 +13933,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T5" s="4">
         <v>0.7</v>
@@ -13973,14 +13971,14 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="24" t="str">
+        <v>38</v>
+      </c>
+      <c r="F6" s="24">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="24">
         <v>0.8</v>
@@ -14001,7 +13999,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="T6" s="4">
         <v>0.5</v>
@@ -14035,14 +14033,14 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>15А</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H7" s="24">
         <v>0.7</v>
@@ -14090,11 +14088,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="24" t="str">
+        <v>36</v>
+      </c>
+      <c r="F8" s="24">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14124,7 +14122,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" si="0"/>
@@ -14136,11 +14134,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="24" t="str">
+        <v>35</v>
+      </c>
+      <c r="F9" s="24">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>51</v>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14180,11 +14178,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="24" t="str">
+        <v>34</v>
+      </c>
+      <c r="F10" s="24">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14224,11 +14222,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="24" t="str">
+        <v>33</v>
+      </c>
+      <c r="F11" s="24">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>52</v>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">
@@ -14268,11 +14266,11 @@
       </c>
       <c r="E12" s="24">
         <f>+LARGE('2'!N:N,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="24" t="str">
+        <v>32</v>
+      </c>
+      <c r="F12" s="24">
         <f>+VLOOKUP(E12,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="G12" s="31"/>
       <c r="K12" s="9">
@@ -14312,11 +14310,11 @@
       </c>
       <c r="E13" s="24">
         <f>+LARGE('2'!N:N,D13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="str">
+        <v>31</v>
+      </c>
+      <c r="F13" s="24">
         <f>+VLOOKUP(E13,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G13" s="31"/>
       <c r="K13" s="9">
@@ -14358,11 +14356,11 @@
       </c>
       <c r="E14" s="24">
         <f>+LARGE('2'!N:N,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24" t="str">
+        <v>30</v>
+      </c>
+      <c r="F14" s="24">
         <f>+VLOOKUP(E14,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
@@ -14403,11 +14401,11 @@
       </c>
       <c r="E15" s="24">
         <f>+LARGE('2'!N:N,D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="24" t="str">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24">
         <f>+VLOOKUP(E15,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="1"/>
@@ -14448,11 +14446,11 @@
       </c>
       <c r="E16" s="24">
         <f>+LARGE('2'!N:N,D16)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>+VLOOKUP(E16,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13/3</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="1"/>
@@ -14491,11 +14489,11 @@
       </c>
       <c r="E17" s="24">
         <f>+LARGE('2'!N:N,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="24" t="str">
+        <v>27</v>
+      </c>
+      <c r="F17" s="24">
         <f>+VLOOKUP(E17,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
@@ -14534,11 +14532,11 @@
       </c>
       <c r="E18" s="24">
         <f>+LARGE('2'!N:N,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="24" t="str">
+        <v>26</v>
+      </c>
+      <c r="F18" s="24">
         <f>+VLOOKUP(E18,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="1"/>
@@ -14565,11 +14563,11 @@
       </c>
       <c r="E19" s="24">
         <f>+LARGE('2'!N:N,D19)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>+VLOOKUP(E19,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="K19" s="9">
         <f>+K18+1</f>
@@ -14596,11 +14594,11 @@
       </c>
       <c r="E20" s="24">
         <f>+LARGE('2'!N:N,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="24" t="str">
+        <v>24</v>
+      </c>
+      <c r="F20" s="24">
         <f>+VLOOKUP(E20,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="1"/>
@@ -14634,11 +14632,11 @@
       </c>
       <c r="E21" s="24">
         <f>+LARGE('2'!N:N,D21)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="24" t="str">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24">
         <f>+VLOOKUP(E21,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="1"/>
@@ -14673,11 +14671,11 @@
       </c>
       <c r="E22" s="24">
         <f>+LARGE('2'!N:N,D22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24" t="str">
+        <v>22</v>
+      </c>
+      <c r="F22" s="24">
         <f>+VLOOKUP(E22,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
@@ -14712,11 +14710,11 @@
       </c>
       <c r="E23" s="24">
         <f>+LARGE('2'!N:N,D23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="24" t="str">
+        <v>21</v>
+      </c>
+      <c r="F23" s="24">
         <f>+VLOOKUP(E23,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
@@ -14751,11 +14749,11 @@
       </c>
       <c r="E24" s="24">
         <f>+LARGE('2'!N:N,D24)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>+VLOOKUP(E24,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>18/2</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
@@ -14790,11 +14788,11 @@
       </c>
       <c r="E25" s="24">
         <f>+LARGE('2'!N:N,D25)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>+VLOOKUP(E25,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>18/1</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="1"/>
@@ -14829,11 +14827,11 @@
       </c>
       <c r="E26" s="24">
         <f>+LARGE('2'!N:N,D26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="24" t="str">
+        <v>18</v>
+      </c>
+      <c r="F26" s="24">
         <f>+VLOOKUP(E26,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="1"/>
@@ -14868,11 +14866,11 @@
       </c>
       <c r="E27" s="24">
         <f>+LARGE('2'!N:N,D27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="24" t="str">
+        <v>17</v>
+      </c>
+      <c r="F27" s="24">
         <f>+VLOOKUP(E27,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="1"/>
@@ -14907,11 +14905,11 @@
       </c>
       <c r="E28" s="24">
         <f>+LARGE('2'!N:N,D28)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="24" t="str">
+        <v>16</v>
+      </c>
+      <c r="F28" s="24">
         <f>+VLOOKUP(E28,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="1"/>
@@ -14946,11 +14944,11 @@
       </c>
       <c r="E29" s="24">
         <f>+LARGE('2'!N:N,D29)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>+VLOOKUP(E29,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>8/1</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="1"/>
@@ -14985,11 +14983,11 @@
       </c>
       <c r="E30" s="24">
         <f>+LARGE('2'!N:N,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="24" t="str">
+        <v>14</v>
+      </c>
+      <c r="F30" s="24">
         <f>+VLOOKUP(E30,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="1"/>
@@ -15024,11 +15022,11 @@
       </c>
       <c r="E31" s="24">
         <f>+LARGE('2'!N:N,D31)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="24" t="str">
+        <v>13</v>
+      </c>
+      <c r="F31" s="24">
         <f>+VLOOKUP(E31,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
@@ -15063,11 +15061,11 @@
       </c>
       <c r="E32" s="24">
         <f>+LARGE('2'!N:N,D32)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="F32" s="24">
         <f>+VLOOKUP(E32,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
@@ -15102,11 +15100,11 @@
       </c>
       <c r="E33" s="24">
         <f>+LARGE('2'!N:N,D33)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="F33" s="24">
         <f>+VLOOKUP(E33,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
@@ -15141,11 +15139,11 @@
       </c>
       <c r="E34" s="24">
         <f>+LARGE('2'!N:N,D34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="F34" s="24">
         <f>+VLOOKUP(E34,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="1"/>
@@ -15180,11 +15178,11 @@
       </c>
       <c r="E35" s="24">
         <f>+LARGE('2'!N:N,D35)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="24" t="str">
+        <v>9</v>
+      </c>
+      <c r="F35" s="24">
         <f>+VLOOKUP(E35,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
@@ -15219,11 +15217,11 @@
       </c>
       <c r="E36" s="24">
         <f>+LARGE('2'!N:N,D36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="24" t="str">
         <f>+VLOOKUP(E36,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>10Б</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -15254,11 +15252,11 @@
       </c>
       <c r="E37" s="24">
         <f>+LARGE('2'!N:N,D37)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="F37" s="24">
         <f>+VLOOKUP(E37,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
@@ -15289,11 +15287,11 @@
       </c>
       <c r="E38" s="24">
         <f>+LARGE('2'!N:N,D38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="F38" s="24">
         <f>+VLOOKUP(E38,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
@@ -15324,11 +15322,11 @@
       </c>
       <c r="E39" s="24">
         <f>+LARGE('2'!N:N,D39)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="F39" s="24">
         <f>+VLOOKUP(E39,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -15359,11 +15357,11 @@
       </c>
       <c r="E40" s="24">
         <f>+LARGE('2'!N:N,D40)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="24" t="str">
         <f>+VLOOKUP(E40,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6/2</v>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -15380,11 +15378,11 @@
       </c>
       <c r="E41" s="24">
         <f>+LARGE('2'!N:N,D41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="24" t="str">
         <f>+VLOOKUP(E41,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6/1</v>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -15401,11 +15399,11 @@
       </c>
       <c r="E42" s="24">
         <f>+LARGE('2'!N:N,D42)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24">
         <f>+VLOOKUP(E42,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -15422,11 +15420,11 @@
       </c>
       <c r="E43" s="24">
         <f>+LARGE('2'!N:N,D43)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
         <f>+VLOOKUP(E43,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
@@ -15496,7 +15494,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B47" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" s="21">
         <f t="shared" ref="D47:D110" si="3">+D46+1</f>
@@ -15513,7 +15511,7 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B48" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D48" s="21">
         <f t="shared" si="3"/>
@@ -15530,7 +15528,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" s="21">
         <f t="shared" si="3"/>
@@ -15547,7 +15545,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="3"/>
@@ -15564,7 +15562,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="3"/>
@@ -15581,7 +15579,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D52" s="21">
         <f t="shared" si="3"/>
@@ -15598,7 +15596,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" s="21">
         <f t="shared" si="3"/>
@@ -15615,7 +15613,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D54" s="21">
         <f t="shared" si="3"/>
@@ -15632,7 +15630,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" s="21">
         <f t="shared" si="3"/>
@@ -15649,7 +15647,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="21">
         <f t="shared" si="3"/>
@@ -15666,7 +15664,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="21">
         <f t="shared" si="3"/>
@@ -15683,7 +15681,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D58" s="21">
         <f t="shared" si="3"/>
@@ -15700,7 +15698,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D59" s="21">
         <f t="shared" si="3"/>
@@ -15717,7 +15715,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D60" s="21">
         <f t="shared" si="3"/>
@@ -17646,7 +17644,7 @@
   <dimension ref="C5:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="A17:F17"/>
+      <selection activeCell="D31" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F567630-7F80-4A27-BA73-A9B3CBEDB8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF54104-2F1C-4E4C-B70F-032E606AC1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2781,7 +2781,7 @@
   <dimension ref="A2:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF54104-2F1C-4E4C-B70F-032E606AC1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD6D0C-2E5E-4653-A51E-8D75D6BD65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -3002,9 +3002,9 @@
         <v>32</v>
       </c>
       <c r="C18" s="85"/>
-      <c r="D18" s="43" t="str" cm="1">
+      <c r="D18" s="43" t="e" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>DHL tower</v>
+        <v>#N/A</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3017,9 +3017,9 @@
         <v>66</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="43" cm="1">
+      <c r="D19" s="43" t="e" cm="1">
         <f t="array" ref="D19">INDEX('2'!I:I, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>2010</v>
+        <v>#N/A</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -3032,9 +3032,9 @@
         <v>23</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="43" cm="1">
+      <c r="D20" s="43" t="e" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>9</v>
+        <v>#N/A</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3050,9 +3050,9 @@
       <c r="D21" s="54">
         <v>3</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="6" t="e">
         <f>IF($D$21=1,"0.95",IF($D$21=$D$20,"0.95",IF($D$21='3'!$L$1,"0.4",IF($D$21='3'!$L$2,"0.5",IF($D$21='3'!$L$3,0.75,IF($D$21='3'!$L$4,0.5,IF($D$21&gt;$D$20,"0","1")))))))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,9 +3067,9 @@
       <c r="D22" s="57">
         <v>49</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="14" t="e">
         <f>+IF($D$19&gt;2000,IF($D$22&gt;160,0.8,IF($D$22&gt;80,0.9,1)),1)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3289,13 +3289,13 @@
         <v>79</v>
       </c>
       <c r="C36" s="80"/>
-      <c r="D36" s="17">
+      <c r="D36" s="17" t="e">
         <f>+E36</f>
-        <v>5000000</v>
-      </c>
-      <c r="E36" s="41">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="41" t="e">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>5000000</v>
+        <v>#N/A</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3307,9 +3307,9 @@
         <v>174</v>
       </c>
       <c r="C37" s="81"/>
-      <c r="D37" s="49">
+      <c r="D37" s="49" t="e">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>245000000</v>
+        <v>#N/A</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3337,9 +3337,9 @@
         <v>173</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="49">
+      <c r="D39" s="49" t="e">
         <f>+D37*D38</f>
-        <v>171500000</v>
+        <v>#N/A</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3366,9 +3366,9 @@
         <v>82</v>
       </c>
       <c r="C41" s="83"/>
-      <c r="D41" s="51">
+      <c r="D41" s="51" t="e">
         <f>+D39*D40</f>
-        <v>171500000</v>
+        <v>#N/A</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="N3" s="24">
         <f>+IF(O3="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24" t="str">
         <f>+IF(B3='1'!$D$15,IF(C3='1'!$D$16, '2'!D3,""),"")</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="P3" s="21" t="s">
         <v>433</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="N4" s="24">
         <f t="shared" ref="N4:N35" si="0">+IF(O4="",0,N3+1)</f>
-        <v>2</v>
-      </c>
-      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24" t="str">
         <f>+IF(B4='1'!$D$15,IF(C4='1'!$D$16, '2'!D4,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P4" s="21" t="s">
         <v>434</v>
@@ -3832,11 +3832,11 @@
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>+IF(B5='1'!$D$15,IF(C5='1'!$D$16, '2'!D5,""),"")</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="P5" s="21" t="s">
         <v>435</v>
@@ -3884,11 +3884,11 @@
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="24" t="str">
         <f>+IF(B6='1'!$D$15,IF(C6='1'!$D$16, '2'!D6,""),"")</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="P6" s="21" t="s">
         <v>436</v>
@@ -3936,11 +3936,11 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24" t="str">
         <f>+IF(B7='1'!$D$15,IF(C7='1'!$D$16, '2'!D7,""),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="P7" s="21" t="s">
         <v>437</v>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24" t="str">
         <f>+IF(B8='1'!$D$15,IF(C8='1'!$D$16, '2'!D8,""),"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="P8" s="69" t="s">
         <v>438</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24" t="str">
         <f>+IF(B9='1'!$D$15,IF(C9='1'!$D$16, '2'!D9,""),"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="P9" s="21" t="s">
         <v>439</v>
@@ -4092,11 +4092,11 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="24" t="str">
         <f>+IF(B10='1'!$D$15,IF(C10='1'!$D$16, '2'!D10,""),"")</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="P10" s="21" t="s">
         <v>440</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24" t="str">
         <f>+IF(B11='1'!$D$15,IF(C11='1'!$D$16, '2'!D11,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P11" s="21" t="s">
         <v>441</v>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24" t="str">
         <f>+IF(B12='1'!$D$15,IF(C12='1'!$D$16, '2'!D12,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P12" s="21" t="s">
         <v>442</v>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="N13" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24" t="str">
         <f>+IF(B13='1'!$D$15,IF(C13='1'!$D$16, '2'!D13,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P13" s="21" t="s">
         <v>443</v>
@@ -4294,11 +4294,11 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="O14" s="24" t="str">
         <f>+IF(B14='1'!$D$15,IF(C14='1'!$D$16, '2'!D14,""),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="P14" s="21" t="s">
         <v>444</v>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24" t="str">
         <f>+IF(B15='1'!$D$15,IF(C15='1'!$D$16, '2'!D15,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P15" s="21" t="s">
         <v>445</v>
@@ -4399,11 +4399,11 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24" t="str">
         <f>+IF(B16='1'!$D$15,IF(C16='1'!$D$16, '2'!D16,""),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="P16" s="21" t="s">
         <v>446</v>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="N17" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O17" s="24" t="str">
         <f>+IF(B17='1'!$D$15,IF(C17='1'!$D$16, '2'!D17,""),"")</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="P17" s="21" t="s">
         <v>447</v>
@@ -4504,11 +4504,11 @@
       </c>
       <c r="N18" s="24">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24" t="str">
         <f>+IF(B18='1'!$D$15,IF(C18='1'!$D$16, '2'!D18,""),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="P18" s="21" t="s">
         <v>448</v>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="N19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24" t="str">
         <f>+IF(B19='1'!$D$15,IF(C19='1'!$D$16, '2'!D19,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P19" s="21" t="s">
         <v>449</v>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="N20" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24" t="str">
         <f>+IF(B20='1'!$D$15,IF(C20='1'!$D$16, '2'!D20,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P20" s="21" t="s">
         <v>450</v>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="N21" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" s="24" t="str">
         <f>+IF(B21='1'!$D$15,IF(C21='1'!$D$16, '2'!D21,""),"")</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="P21" s="21" t="s">
         <v>451</v>
@@ -4711,11 +4711,11 @@
       </c>
       <c r="N22" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O22" s="24" t="str">
         <f>+IF(B22='1'!$D$15,IF(C22='1'!$D$16, '2'!D22,""),"")</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="P22" s="21" t="s">
         <v>452</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O23" s="24">
+        <v>0</v>
+      </c>
+      <c r="O23" s="24" t="str">
         <f>+IF(B23='1'!$D$15,IF(C23='1'!$D$16, '2'!D23,""),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="P23" s="21" t="s">
         <v>453</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24" t="str">
         <f>+IF(B24='1'!$D$15,IF(C24='1'!$D$16, '2'!D24,""),"")</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="P24" s="21" t="s">
         <v>454</v>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24" t="str">
         <f>+IF(B25='1'!$D$15,IF(C25='1'!$D$16, '2'!D25,""),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P25" s="21" t="s">
         <v>455</v>
@@ -4915,11 +4915,11 @@
       </c>
       <c r="N26" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24" t="str">
         <f>+IF(B26='1'!$D$15,IF(C26='1'!$D$16, '2'!D26,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P26" s="21" t="s">
         <v>456</v>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="N27" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O27" s="24" t="str">
         <f>+IF(B27='1'!$D$15,IF(C27='1'!$D$16, '2'!D27,""),"")</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="P27" s="21" t="s">
         <v>457</v>
@@ -5019,11 +5019,11 @@
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24" t="str">
         <f>+IF(B28='1'!$D$15,IF(C28='1'!$D$16, '2'!D28,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P28" s="21" t="s">
         <v>458</v>
@@ -5069,11 +5069,11 @@
       </c>
       <c r="N29" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24" t="str">
         <f>+IF(B29='1'!$D$15,IF(C29='1'!$D$16, '2'!D29,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P29" s="21" t="s">
         <v>459</v>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O30" s="24" t="str">
         <f>+IF(B30='1'!$D$15,IF(C30='1'!$D$16, '2'!D30,""),"")</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="P30" s="21" t="s">
         <v>460</v>
@@ -5167,11 +5167,11 @@
       </c>
       <c r="N31" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24" t="str">
         <f>+IF(B31='1'!$D$15,IF(C31='1'!$D$16, '2'!D31,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P31" s="21" t="s">
         <v>461</v>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O32" s="24">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24" t="str">
         <f>+IF(B32='1'!$D$15,IF(C32='1'!$D$16, '2'!D32,""),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P32" s="21" t="s">
         <v>462</v>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="O33" s="24">
+        <v>0</v>
+      </c>
+      <c r="O33" s="24" t="str">
         <f>+IF(B33='1'!$D$15,IF(C33='1'!$D$16, '2'!D33,""),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="P33" s="21" t="s">
         <v>463</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O34" s="24">
+        <v>0</v>
+      </c>
+      <c r="O34" s="24" t="str">
         <f>+IF(B34='1'!$D$15,IF(C34='1'!$D$16, '2'!D34,""),"")</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="P34" s="21" t="s">
         <v>464</v>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="O35" s="24">
+        <v>0</v>
+      </c>
+      <c r="O35" s="24" t="str">
         <f>+IF(B35='1'!$D$15,IF(C35='1'!$D$16, '2'!D35,""),"")</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="P35" s="21" t="s">
         <v>465</v>
@@ -5419,11 +5419,11 @@
       </c>
       <c r="N36" s="24">
         <f t="shared" ref="N36:N67" si="1">+IF(O36="",0,N35+1)</f>
-        <v>34</v>
-      </c>
-      <c r="O36" s="24">
+        <v>0</v>
+      </c>
+      <c r="O36" s="24" t="str">
         <f>+IF(B36='1'!$D$15,IF(C36='1'!$D$16, '2'!D36,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P36" s="21" t="s">
         <v>466</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="N37" s="24">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O37" s="24">
+        <v>0</v>
+      </c>
+      <c r="O37" s="24" t="str">
         <f>+IF(B37='1'!$D$15,IF(C37='1'!$D$16, '2'!D37,""),"")</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="P37" s="21" t="s">
         <v>467</v>
@@ -5523,11 +5523,11 @@
       </c>
       <c r="N38" s="24">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="O38" s="24">
+        <v>0</v>
+      </c>
+      <c r="O38" s="24" t="str">
         <f>+IF(B38='1'!$D$15,IF(C38='1'!$D$16, '2'!D38,""),"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="P38" s="21" t="s">
         <v>468</v>
@@ -5575,11 +5575,11 @@
       </c>
       <c r="N39" s="24">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O39" s="24" t="str">
         <f>+IF(B39='1'!$D$15,IF(C39='1'!$D$16, '2'!D39,""),"")</f>
-        <v>15А</v>
+        <v/>
       </c>
       <c r="P39" s="21" t="s">
         <v>469</v>
@@ -5625,11 +5625,11 @@
       </c>
       <c r="N40" s="24">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O40" s="24">
+        <v>0</v>
+      </c>
+      <c r="O40" s="24" t="str">
         <f>+IF(B40='1'!$D$15,IF(C40='1'!$D$16, '2'!D40,""),"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="P40" s="21" t="s">
         <v>470</v>
@@ -5677,11 +5677,11 @@
       </c>
       <c r="N41" s="24">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O41" s="24">
+        <v>0</v>
+      </c>
+      <c r="O41" s="24" t="str">
         <f>+IF(B41='1'!$D$15,IF(C41='1'!$D$16, '2'!D41,""),"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="P41" s="21" t="s">
         <v>471</v>
@@ -5729,11 +5729,11 @@
       </c>
       <c r="N42" s="24">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="O42" s="24">
+        <v>0</v>
+      </c>
+      <c r="O42" s="24" t="str">
         <f>+IF(B42='1'!$D$15,IF(C42='1'!$D$16, '2'!D42,""),"")</f>
-        <v>42</v>
+        <v/>
       </c>
       <c r="P42" s="21" t="s">
         <v>472</v>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="N43" s="24">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="O43" s="24">
+        <v>0</v>
+      </c>
+      <c r="O43" s="24" t="str">
         <f>+IF(B43='1'!$D$15,IF(C43='1'!$D$16, '2'!D43,""),"")</f>
-        <v>62</v>
+        <v/>
       </c>
       <c r="P43" s="21" t="s">
         <v>473</v>
@@ -5831,11 +5831,11 @@
       </c>
       <c r="N44" s="24">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O44" s="24">
+        <v>0</v>
+      </c>
+      <c r="O44" s="24" t="str">
         <f>+IF(B44='1'!$D$15,IF(C44='1'!$D$16, '2'!D44,""),"")</f>
-        <v>46</v>
+        <v/>
       </c>
       <c r="P44" s="21" t="s">
         <v>474</v>
@@ -9629,11 +9629,11 @@
       </c>
       <c r="N118" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O118" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="O118" s="24">
         <f>+IF(B118='1'!$D$15,IF(C118='1'!$D$16, '2'!D118,""),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="P118" s="70" t="s">
         <v>545</v>
@@ -9681,11 +9681,11 @@
       </c>
       <c r="N119" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O119" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="O119" s="24">
         <f>+IF(B119='1'!$D$15,IF(C119='1'!$D$16, '2'!D119,""),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="P119" s="70" t="s">
         <v>546</v>
@@ -9733,11 +9733,11 @@
       </c>
       <c r="N120" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O120" s="24" t="str">
         <f>+IF(B120='1'!$D$15,IF(C120='1'!$D$16, '2'!D120,""),"")</f>
-        <v/>
+        <v>17/1</v>
       </c>
       <c r="P120" s="70" t="s">
         <v>547</v>
@@ -9785,11 +9785,11 @@
       </c>
       <c r="N121" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O121" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="O121" s="24">
         <f>+IF(B121='1'!$D$15,IF(C121='1'!$D$16, '2'!D121,""),"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="P121" s="70" t="s">
         <v>548</v>
@@ -9836,11 +9836,11 @@
       </c>
       <c r="N122" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O122" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="O122" s="24">
         <f>+IF(B122='1'!$D$15,IF(C122='1'!$D$16, '2'!D122,""),"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="P122" s="70" t="s">
         <v>549</v>
@@ -13652,11 +13652,11 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F2" s="24">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>626</v>
@@ -13745,11 +13745,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F3" s="24">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>40</v>
-      </c>
-      <c r="F4" s="24">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24" t="str">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v>42</v>
+        <v>17/1</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F5" s="24">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>169</v>
@@ -13971,11 +13971,11 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F6" s="24">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>171</v>
@@ -14033,11 +14033,11 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v>15А</v>
+        <v/>
       </c>
       <c r="G7" s="31" t="s">
         <v>170</v>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24" t="str">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="str">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14178,11 +14178,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>34</v>
-      </c>
-      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="str">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14222,11 +14222,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>33</v>
-      </c>
-      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="str">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">
@@ -14266,11 +14266,11 @@
       </c>
       <c r="E12" s="24">
         <f>+LARGE('2'!N:N,D12)</f>
-        <v>32</v>
-      </c>
-      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24" t="str">
         <f>+VLOOKUP(E12,'2'!N:O,2,FALSE)</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="G12" s="31"/>
       <c r="K12" s="9">
@@ -14310,11 +14310,11 @@
       </c>
       <c r="E13" s="24">
         <f>+LARGE('2'!N:N,D13)</f>
-        <v>31</v>
-      </c>
-      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24" t="str">
         <f>+VLOOKUP(E13,'2'!N:O,2,FALSE)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="G13" s="31"/>
       <c r="K13" s="9">
@@ -14356,11 +14356,11 @@
       </c>
       <c r="E14" s="24">
         <f>+LARGE('2'!N:N,D14)</f>
-        <v>30</v>
-      </c>
-      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24" t="str">
         <f>+VLOOKUP(E14,'2'!N:O,2,FALSE)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
@@ -14401,11 +14401,11 @@
       </c>
       <c r="E15" s="24">
         <f>+LARGE('2'!N:N,D15)</f>
-        <v>29</v>
-      </c>
-      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="str">
         <f>+VLOOKUP(E15,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="1"/>
@@ -14446,11 +14446,11 @@
       </c>
       <c r="E16" s="24">
         <f>+LARGE('2'!N:N,D16)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>+VLOOKUP(E16,'2'!N:O,2,FALSE)</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="1"/>
@@ -14489,11 +14489,11 @@
       </c>
       <c r="E17" s="24">
         <f>+LARGE('2'!N:N,D17)</f>
-        <v>27</v>
-      </c>
-      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24" t="str">
         <f>+VLOOKUP(E17,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
@@ -14532,11 +14532,11 @@
       </c>
       <c r="E18" s="24">
         <f>+LARGE('2'!N:N,D18)</f>
-        <v>26</v>
-      </c>
-      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24" t="str">
         <f>+VLOOKUP(E18,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="1"/>
@@ -14563,11 +14563,11 @@
       </c>
       <c r="E19" s="24">
         <f>+LARGE('2'!N:N,D19)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>+VLOOKUP(E19,'2'!N:O,2,FALSE)</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="K19" s="9">
         <f>+K18+1</f>
@@ -14594,11 +14594,11 @@
       </c>
       <c r="E20" s="24">
         <f>+LARGE('2'!N:N,D20)</f>
-        <v>24</v>
-      </c>
-      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="str">
         <f>+VLOOKUP(E20,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="1"/>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="E21" s="24">
         <f>+LARGE('2'!N:N,D21)</f>
-        <v>23</v>
-      </c>
-      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24" t="str">
         <f>+VLOOKUP(E21,'2'!N:O,2,FALSE)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="1"/>
@@ -14671,11 +14671,11 @@
       </c>
       <c r="E22" s="24">
         <f>+LARGE('2'!N:N,D22)</f>
-        <v>22</v>
-      </c>
-      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24" t="str">
         <f>+VLOOKUP(E22,'2'!N:O,2,FALSE)</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
@@ -14710,11 +14710,11 @@
       </c>
       <c r="E23" s="24">
         <f>+LARGE('2'!N:N,D23)</f>
-        <v>21</v>
-      </c>
-      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24" t="str">
         <f>+VLOOKUP(E23,'2'!N:O,2,FALSE)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
@@ -14749,11 +14749,11 @@
       </c>
       <c r="E24" s="24">
         <f>+LARGE('2'!N:N,D24)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>+VLOOKUP(E24,'2'!N:O,2,FALSE)</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
@@ -14788,11 +14788,11 @@
       </c>
       <c r="E25" s="24">
         <f>+LARGE('2'!N:N,D25)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>+VLOOKUP(E25,'2'!N:O,2,FALSE)</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="1"/>
@@ -14827,11 +14827,11 @@
       </c>
       <c r="E26" s="24">
         <f>+LARGE('2'!N:N,D26)</f>
-        <v>18</v>
-      </c>
-      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="str">
         <f>+VLOOKUP(E26,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="1"/>
@@ -14866,11 +14866,11 @@
       </c>
       <c r="E27" s="24">
         <f>+LARGE('2'!N:N,D27)</f>
-        <v>17</v>
-      </c>
-      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="str">
         <f>+VLOOKUP(E27,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="1"/>
@@ -14905,11 +14905,11 @@
       </c>
       <c r="E28" s="24">
         <f>+LARGE('2'!N:N,D28)</f>
-        <v>16</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="str">
         <f>+VLOOKUP(E28,'2'!N:O,2,FALSE)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="1"/>
@@ -14944,11 +14944,11 @@
       </c>
       <c r="E29" s="24">
         <f>+LARGE('2'!N:N,D29)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>+VLOOKUP(E29,'2'!N:O,2,FALSE)</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="1"/>
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E30" s="24">
         <f>+LARGE('2'!N:N,D30)</f>
-        <v>14</v>
-      </c>
-      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="str">
         <f>+VLOOKUP(E30,'2'!N:O,2,FALSE)</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="1"/>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="E31" s="24">
         <f>+LARGE('2'!N:N,D31)</f>
-        <v>13</v>
-      </c>
-      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="str">
         <f>+VLOOKUP(E31,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
@@ -15061,11 +15061,11 @@
       </c>
       <c r="E32" s="24">
         <f>+LARGE('2'!N:N,D32)</f>
-        <v>12</v>
-      </c>
-      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="str">
         <f>+VLOOKUP(E32,'2'!N:O,2,FALSE)</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
@@ -15100,11 +15100,11 @@
       </c>
       <c r="E33" s="24">
         <f>+LARGE('2'!N:N,D33)</f>
-        <v>11</v>
-      </c>
-      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="str">
         <f>+VLOOKUP(E33,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
@@ -15139,11 +15139,11 @@
       </c>
       <c r="E34" s="24">
         <f>+LARGE('2'!N:N,D34)</f>
-        <v>10</v>
-      </c>
-      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="str">
         <f>+VLOOKUP(E34,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="1"/>
@@ -15178,11 +15178,11 @@
       </c>
       <c r="E35" s="24">
         <f>+LARGE('2'!N:N,D35)</f>
-        <v>9</v>
-      </c>
-      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="str">
         <f>+VLOOKUP(E35,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
@@ -15217,11 +15217,11 @@
       </c>
       <c r="E36" s="24">
         <f>+LARGE('2'!N:N,D36)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="24" t="str">
         <f>+VLOOKUP(E36,'2'!N:O,2,FALSE)</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -15252,11 +15252,11 @@
       </c>
       <c r="E37" s="24">
         <f>+LARGE('2'!N:N,D37)</f>
-        <v>7</v>
-      </c>
-      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24" t="str">
         <f>+VLOOKUP(E37,'2'!N:O,2,FALSE)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
@@ -15287,11 +15287,11 @@
       </c>
       <c r="E38" s="24">
         <f>+LARGE('2'!N:N,D38)</f>
-        <v>6</v>
-      </c>
-      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24" t="str">
         <f>+VLOOKUP(E38,'2'!N:O,2,FALSE)</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
@@ -15322,11 +15322,11 @@
       </c>
       <c r="E39" s="24">
         <f>+LARGE('2'!N:N,D39)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24" t="str">
         <f>+VLOOKUP(E39,'2'!N:O,2,FALSE)</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -15357,11 +15357,11 @@
       </c>
       <c r="E40" s="24">
         <f>+LARGE('2'!N:N,D40)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="24" t="str">
         <f>+VLOOKUP(E40,'2'!N:O,2,FALSE)</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -15378,11 +15378,11 @@
       </c>
       <c r="E41" s="24">
         <f>+LARGE('2'!N:N,D41)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="24" t="str">
         <f>+VLOOKUP(E41,'2'!N:O,2,FALSE)</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -15399,11 +15399,11 @@
       </c>
       <c r="E42" s="24">
         <f>+LARGE('2'!N:N,D42)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24" t="str">
         <f>+VLOOKUP(E42,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -15420,11 +15420,11 @@
       </c>
       <c r="E43" s="24">
         <f>+LARGE('2'!N:N,D43)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24" t="str">
         <f>+VLOOKUP(E43,'2'!N:O,2,FALSE)</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD6D0C-2E5E-4653-A51E-8D75D6BD65E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D2A01-0692-4548-A9B3-1C916358093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2790,7 @@
     <col min="2" max="2" width="16.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="12" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="12"/>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="54">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3002,9 +3002,9 @@
         <v>32</v>
       </c>
       <c r="C18" s="85"/>
-      <c r="D18" s="43" t="e" cm="1">
+      <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>Finance Center</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3017,9 +3017,9 @@
         <v>66</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="43" t="e" cm="1">
+      <c r="D19" s="43" cm="1">
         <f t="array" ref="D19">INDEX('2'!I:I, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>2007</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -3032,9 +3032,9 @@
         <v>23</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="43" t="e" cm="1">
+      <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C21" s="85"/>
       <c r="D21" s="54">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6" t="e">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="str">
         <f>IF($D$21=1,"0.95",IF($D$21=$D$20,"0.95",IF($D$21='3'!$L$1,"0.4",IF($D$21='3'!$L$2,"0.5",IF($D$21='3'!$L$3,0.75,IF($D$21='3'!$L$4,0.5,IF($D$21&gt;$D$20,"0","1")))))))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,9 +3067,9 @@
       <c r="D22" s="57">
         <v>49</v>
       </c>
-      <c r="E22" s="14" t="e">
+      <c r="E22" s="14">
         <f>+IF($D$19&gt;2000,IF($D$22&gt;160,0.8,IF($D$22&gt;80,0.9,1)),1)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>0</v>
+        <v>5800000</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3289,13 +3289,13 @@
         <v>79</v>
       </c>
       <c r="C36" s="80"/>
-      <c r="D36" s="17" t="e">
+      <c r="D36" s="17">
         <f>+E36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="41" t="e">
+        <v>5800000</v>
+      </c>
+      <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>#N/A</v>
+        <v>5800000</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3307,9 +3307,9 @@
         <v>174</v>
       </c>
       <c r="C37" s="81"/>
-      <c r="D37" s="49" t="e">
+      <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>#N/A</v>
+        <v>284200000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3337,9 +3337,9 @@
         <v>173</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="49" t="e">
+      <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>#N/A</v>
+        <v>198940000</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3366,9 +3366,9 @@
         <v>82</v>
       </c>
       <c r="C41" s="83"/>
-      <c r="D41" s="51" t="e">
+      <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>#N/A</v>
+        <v>198940000</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -8445,11 +8445,11 @@
       </c>
       <c r="N95" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" s="24" t="str">
         <f>+IF(B95='1'!$D$15,IF(C95='1'!$D$16, '2'!D95,""),"")</f>
-        <v/>
+        <v>5/1</v>
       </c>
       <c r="P95" s="70" t="s">
         <v>522</v>
@@ -8497,11 +8497,11 @@
       </c>
       <c r="N96" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O96" s="24" t="str">
         <f>+IF(B96='1'!$D$15,IF(C96='1'!$D$16, '2'!D96,""),"")</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="P96" s="70" t="s">
         <v>523</v>
@@ -8549,11 +8549,11 @@
       </c>
       <c r="N97" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O97" s="24" t="str">
         <f>+IF(B97='1'!$D$15,IF(C97='1'!$D$16, '2'!D97,""),"")</f>
-        <v/>
+        <v>9/1</v>
       </c>
       <c r="P97" s="70" t="s">
         <v>524</v>
@@ -8599,11 +8599,11 @@
       </c>
       <c r="N98" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O98" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="O98" s="24">
         <f>+IF(B98='1'!$D$15,IF(C98='1'!$D$16, '2'!D98,""),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="P98" s="70" t="s">
         <v>525</v>
@@ -8651,11 +8651,11 @@
       </c>
       <c r="N99" s="24">
         <f t="shared" ref="N99:N130" si="3">+IF(O99="",0,N98+1)</f>
-        <v>0</v>
-      </c>
-      <c r="O99" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="O99" s="24">
         <f>+IF(B99='1'!$D$15,IF(C99='1'!$D$16, '2'!D99,""),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="P99" s="70" t="s">
         <v>526</v>
@@ -8703,11 +8703,11 @@
       </c>
       <c r="N100" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O100" s="24" t="str">
         <f>+IF(B100='1'!$D$15,IF(C100='1'!$D$16, '2'!D100,""),"")</f>
-        <v/>
+        <v>4/3</v>
       </c>
       <c r="P100" s="70" t="s">
         <v>527</v>
@@ -8755,11 +8755,11 @@
       </c>
       <c r="N101" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O101" s="24" t="str">
         <f>+IF(B101='1'!$D$15,IF(C101='1'!$D$16, '2'!D101,""),"")</f>
-        <v/>
+        <v>7/2</v>
       </c>
       <c r="P101" s="70" t="s">
         <v>528</v>
@@ -8801,11 +8801,11 @@
       </c>
       <c r="N102" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O102" s="24" t="str">
+        <v>8</v>
+      </c>
+      <c r="O102" s="24">
         <f>+IF(B102='1'!$D$15,IF(C102='1'!$D$16, '2'!D102,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P102" s="70" t="s">
         <v>529</v>
@@ -8853,11 +8853,11 @@
       </c>
       <c r="N103" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O103" s="24" t="str">
         <f>+IF(B103='1'!$D$15,IF(C103='1'!$D$16, '2'!D103,""),"")</f>
-        <v/>
+        <v>17/1</v>
       </c>
       <c r="P103" s="70" t="s">
         <v>530</v>
@@ -8905,11 +8905,11 @@
       </c>
       <c r="N104" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O104" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="O104" s="24">
         <f>+IF(B104='1'!$D$15,IF(C104='1'!$D$16, '2'!D104,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P104" s="70" t="s">
         <v>531</v>
@@ -9629,11 +9629,11 @@
       </c>
       <c r="N118" s="24">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O118" s="24">
+        <v>0</v>
+      </c>
+      <c r="O118" s="24" t="str">
         <f>+IF(B118='1'!$D$15,IF(C118='1'!$D$16, '2'!D118,""),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P118" s="70" t="s">
         <v>545</v>
@@ -9681,11 +9681,11 @@
       </c>
       <c r="N119" s="24">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O119" s="24">
+        <v>0</v>
+      </c>
+      <c r="O119" s="24" t="str">
         <f>+IF(B119='1'!$D$15,IF(C119='1'!$D$16, '2'!D119,""),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="P119" s="70" t="s">
         <v>546</v>
@@ -9733,11 +9733,11 @@
       </c>
       <c r="N120" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O120" s="24" t="str">
         <f>+IF(B120='1'!$D$15,IF(C120='1'!$D$16, '2'!D120,""),"")</f>
-        <v>17/1</v>
+        <v/>
       </c>
       <c r="P120" s="70" t="s">
         <v>547</v>
@@ -9785,11 +9785,11 @@
       </c>
       <c r="N121" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O121" s="24">
+        <v>0</v>
+      </c>
+      <c r="O121" s="24" t="str">
         <f>+IF(B121='1'!$D$15,IF(C121='1'!$D$16, '2'!D121,""),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="P121" s="70" t="s">
         <v>548</v>
@@ -9836,11 +9836,11 @@
       </c>
       <c r="N122" s="24">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O122" s="24">
+        <v>0</v>
+      </c>
+      <c r="O122" s="24" t="str">
         <f>+IF(B122='1'!$D$15,IF(C122='1'!$D$16, '2'!D122,""),"")</f>
-        <v>25</v>
+        <v/>
       </c>
       <c r="P122" s="70" t="s">
         <v>549</v>
@@ -13652,11 +13652,11 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="24">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>626</v>
@@ -13745,11 +13745,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="24">
+        <v>9</v>
+      </c>
+      <c r="F3" s="24" t="str">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v>21</v>
+        <v>17/1</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>3</v>
-      </c>
-      <c r="F4" s="24" t="str">
+        <v>8</v>
+      </c>
+      <c r="F4" s="24">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v>17/1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="24">
+        <v>7</v>
+      </c>
+      <c r="F5" s="24" t="str">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v>15</v>
+        <v>7/2</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>169</v>
@@ -13971,11 +13971,11 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="24">
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="str">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v>5</v>
+        <v>4/3</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>171</v>
@@ -14033,11 +14033,11 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>170</v>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="F8" s="24">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="24" t="str">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>9/1</v>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14178,11 +14178,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="24" t="str">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14222,11 +14222,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="24" t="str">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>5/1</v>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D2A01-0692-4548-A9B3-1C916358093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF234DB9-C225-4ADD-AFCB-AC844AEFBC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="54">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="C18" s="85"/>
       <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>Finance Center</v>
+        <v>Mn central office</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="C19" s="85"/>
       <c r="D19" s="43" cm="1">
         <f t="array" ref="D19">INDEX('2'!I:I, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="E19" s="6"/>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="C20" s="85"/>
       <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="57">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E22" s="14">
         <f>+IF($D$19&gt;2000,IF($D$22&gt;160,0.8,IF($D$22&gt;80,0.9,1)),1)</f>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>5800000</v>
+        <v>9628200</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,17 +3285,17 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17">
         <f>+E36</f>
-        <v>5800000</v>
+        <v>9628200</v>
       </c>
       <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>5800000</v>
+        <v>9628200</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3303,13 +3303,13 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>284200000</v>
+        <v>385128000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,13 +3333,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>198940000</v>
+        <v>269589600</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,13 +3362,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>198940000</v>
+        <v>269589600</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,10 +3428,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45838</v>
@@ -3460,6 +3460,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3476,27 +3497,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3604,11 +3604,11 @@
   <dimension ref="A1:P194"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="N3" s="24">
         <f>+IF(O3="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="O3" s="24">
         <f>+IF(B3='1'!$D$15,IF(C3='1'!$D$16, '2'!D3,""),"")</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="P3" s="21" t="s">
         <v>433</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="N4" s="24">
         <f t="shared" ref="N4:N35" si="0">+IF(O4="",0,N3+1)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24">
         <f>+IF(B4='1'!$D$15,IF(C4='1'!$D$16, '2'!D4,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>434</v>
@@ -3832,11 +3832,11 @@
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>+IF(B5='1'!$D$15,IF(C5='1'!$D$16, '2'!D5,""),"")</f>
-        <v/>
+        <v>6/1</v>
       </c>
       <c r="P5" s="21" t="s">
         <v>435</v>
@@ -3884,11 +3884,11 @@
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="24" t="str">
         <f>+IF(B6='1'!$D$15,IF(C6='1'!$D$16, '2'!D6,""),"")</f>
-        <v/>
+        <v>6/2</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>436</v>
@@ -3936,11 +3936,11 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="O7" s="24">
         <f>+IF(B7='1'!$D$15,IF(C7='1'!$D$16, '2'!D7,""),"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>437</v>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="O8" s="24">
         <f>+IF(B8='1'!$D$15,IF(C8='1'!$D$16, '2'!D8,""),"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="P8" s="69" t="s">
         <v>438</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="O9" s="24">
         <f>+IF(B9='1'!$D$15,IF(C9='1'!$D$16, '2'!D9,""),"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>439</v>
@@ -4092,11 +4092,11 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O10" s="24" t="str">
         <f>+IF(B10='1'!$D$15,IF(C10='1'!$D$16, '2'!D10,""),"")</f>
-        <v/>
+        <v>10Б</v>
       </c>
       <c r="P10" s="21" t="s">
         <v>440</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="24" t="str">
+        <v>9</v>
+      </c>
+      <c r="O11" s="24">
         <f>+IF(B11='1'!$D$15,IF(C11='1'!$D$16, '2'!D11,""),"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="P11" s="21" t="s">
         <v>441</v>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="O12" s="24">
         <f>+IF(B12='1'!$D$15,IF(C12='1'!$D$16, '2'!D12,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P12" s="21" t="s">
         <v>442</v>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="N13" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="O13" s="24">
         <f>+IF(B13='1'!$D$15,IF(C13='1'!$D$16, '2'!D13,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>443</v>
@@ -4294,11 +4294,11 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="O14" s="24">
         <f>+IF(B14='1'!$D$15,IF(C14='1'!$D$16, '2'!D14,""),"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>444</v>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="24" t="str">
+        <v>13</v>
+      </c>
+      <c r="O15" s="24">
         <f>+IF(B15='1'!$D$15,IF(C15='1'!$D$16, '2'!D15,""),"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>445</v>
@@ -4399,11 +4399,11 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="24" t="str">
+        <v>14</v>
+      </c>
+      <c r="O16" s="24">
         <f>+IF(B16='1'!$D$15,IF(C16='1'!$D$16, '2'!D16,""),"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>446</v>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="N17" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O17" s="24" t="str">
         <f>+IF(B17='1'!$D$15,IF(C17='1'!$D$16, '2'!D17,""),"")</f>
-        <v/>
+        <v>8/1</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>447</v>
@@ -4504,11 +4504,11 @@
       </c>
       <c r="N18" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="24" t="str">
+        <v>16</v>
+      </c>
+      <c r="O18" s="24">
         <f>+IF(B18='1'!$D$15,IF(C18='1'!$D$16, '2'!D18,""),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>448</v>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="N19" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="24" t="str">
+        <v>17</v>
+      </c>
+      <c r="O19" s="24">
         <f>+IF(B19='1'!$D$15,IF(C19='1'!$D$16, '2'!D19,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>449</v>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="N20" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="24" t="str">
+        <v>18</v>
+      </c>
+      <c r="O20" s="24">
         <f>+IF(B20='1'!$D$15,IF(C20='1'!$D$16, '2'!D20,""),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>450</v>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="N21" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O21" s="24" t="str">
         <f>+IF(B21='1'!$D$15,IF(C21='1'!$D$16, '2'!D21,""),"")</f>
-        <v/>
+        <v>18/1</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>451</v>
@@ -4711,11 +4711,11 @@
       </c>
       <c r="N22" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O22" s="24" t="str">
         <f>+IF(B22='1'!$D$15,IF(C22='1'!$D$16, '2'!D22,""),"")</f>
-        <v/>
+        <v>18/2</v>
       </c>
       <c r="P22" s="21" t="s">
         <v>452</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="24" t="str">
+        <v>21</v>
+      </c>
+      <c r="O23" s="24">
         <f>+IF(B23='1'!$D$15,IF(C23='1'!$D$16, '2'!D23,""),"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="P23" s="21" t="s">
         <v>453</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="24" t="str">
+        <v>22</v>
+      </c>
+      <c r="O24" s="24">
         <f>+IF(B24='1'!$D$15,IF(C24='1'!$D$16, '2'!D24,""),"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="P24" s="21" t="s">
         <v>454</v>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="24" t="str">
+        <v>23</v>
+      </c>
+      <c r="O25" s="24">
         <f>+IF(B25='1'!$D$15,IF(C25='1'!$D$16, '2'!D25,""),"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="P25" s="21" t="s">
         <v>455</v>
@@ -4915,11 +4915,11 @@
       </c>
       <c r="N26" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="24" t="str">
+        <v>24</v>
+      </c>
+      <c r="O26" s="24">
         <f>+IF(B26='1'!$D$15,IF(C26='1'!$D$16, '2'!D26,""),"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="P26" s="21" t="s">
         <v>456</v>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="N27" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O27" s="24" t="str">
         <f>+IF(B27='1'!$D$15,IF(C27='1'!$D$16, '2'!D27,""),"")</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="P27" s="21" t="s">
         <v>457</v>
@@ -5019,11 +5019,11 @@
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="24" t="str">
+        <v>26</v>
+      </c>
+      <c r="O28" s="24">
         <f>+IF(B28='1'!$D$15,IF(C28='1'!$D$16, '2'!D28,""),"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="P28" s="21" t="s">
         <v>458</v>
@@ -5069,11 +5069,11 @@
       </c>
       <c r="N29" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="24" t="str">
+        <v>27</v>
+      </c>
+      <c r="O29" s="24">
         <f>+IF(B29='1'!$D$15,IF(C29='1'!$D$16, '2'!D29,""),"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="P29" s="21" t="s">
         <v>459</v>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O30" s="24" t="str">
         <f>+IF(B30='1'!$D$15,IF(C30='1'!$D$16, '2'!D30,""),"")</f>
-        <v/>
+        <v>13/3</v>
       </c>
       <c r="P30" s="21" t="s">
         <v>460</v>
@@ -5167,11 +5167,11 @@
       </c>
       <c r="N31" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="24" t="str">
+        <v>29</v>
+      </c>
+      <c r="O31" s="24">
         <f>+IF(B31='1'!$D$15,IF(C31='1'!$D$16, '2'!D31,""),"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="P31" s="21" t="s">
         <v>461</v>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="24" t="str">
+        <v>30</v>
+      </c>
+      <c r="O32" s="24">
         <f>+IF(B32='1'!$D$15,IF(C32='1'!$D$16, '2'!D32,""),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="P32" s="21" t="s">
         <v>462</v>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="24" t="str">
+        <v>31</v>
+      </c>
+      <c r="O33" s="24">
         <f>+IF(B33='1'!$D$15,IF(C33='1'!$D$16, '2'!D33,""),"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>463</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="24" t="str">
+        <v>32</v>
+      </c>
+      <c r="O34" s="24">
         <f>+IF(B34='1'!$D$15,IF(C34='1'!$D$16, '2'!D34,""),"")</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>464</v>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="24" t="str">
+        <v>33</v>
+      </c>
+      <c r="O35" s="24">
         <f>+IF(B35='1'!$D$15,IF(C35='1'!$D$16, '2'!D35,""),"")</f>
-        <v/>
+        <v>52</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>465</v>
@@ -5419,11 +5419,11 @@
       </c>
       <c r="N36" s="24">
         <f t="shared" ref="N36:N67" si="1">+IF(O36="",0,N35+1)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="24" t="str">
+        <v>34</v>
+      </c>
+      <c r="O36" s="24">
         <f>+IF(B36='1'!$D$15,IF(C36='1'!$D$16, '2'!D36,""),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>466</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="N37" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="24" t="str">
+        <v>35</v>
+      </c>
+      <c r="O37" s="24">
         <f>+IF(B37='1'!$D$15,IF(C37='1'!$D$16, '2'!D37,""),"")</f>
-        <v/>
+        <v>51</v>
       </c>
       <c r="P37" s="21" t="s">
         <v>467</v>
@@ -5523,11 +5523,11 @@
       </c>
       <c r="N38" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="24" t="str">
+        <v>36</v>
+      </c>
+      <c r="O38" s="24">
         <f>+IF(B38='1'!$D$15,IF(C38='1'!$D$16, '2'!D38,""),"")</f>
-        <v/>
+        <v>34</v>
       </c>
       <c r="P38" s="21" t="s">
         <v>468</v>
@@ -5575,11 +5575,11 @@
       </c>
       <c r="N39" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O39" s="24" t="str">
         <f>+IF(B39='1'!$D$15,IF(C39='1'!$D$16, '2'!D39,""),"")</f>
-        <v/>
+        <v>15А</v>
       </c>
       <c r="P39" s="21" t="s">
         <v>469</v>
@@ -5625,11 +5625,11 @@
       </c>
       <c r="N40" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="24" t="str">
+        <v>38</v>
+      </c>
+      <c r="O40" s="24">
         <f>+IF(B40='1'!$D$15,IF(C40='1'!$D$16, '2'!D40,""),"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="P40" s="21" t="s">
         <v>470</v>
@@ -5677,11 +5677,11 @@
       </c>
       <c r="N41" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="24" t="str">
+        <v>39</v>
+      </c>
+      <c r="O41" s="24">
         <f>+IF(B41='1'!$D$15,IF(C41='1'!$D$16, '2'!D41,""),"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="P41" s="21" t="s">
         <v>471</v>
@@ -5729,11 +5729,11 @@
       </c>
       <c r="N42" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="24" t="str">
+        <v>40</v>
+      </c>
+      <c r="O42" s="24">
         <f>+IF(B42='1'!$D$15,IF(C42='1'!$D$16, '2'!D42,""),"")</f>
-        <v/>
+        <v>42</v>
       </c>
       <c r="P42" s="21" t="s">
         <v>472</v>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="N43" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="24" t="str">
+        <v>41</v>
+      </c>
+      <c r="O43" s="24">
         <f>+IF(B43='1'!$D$15,IF(C43='1'!$D$16, '2'!D43,""),"")</f>
-        <v/>
+        <v>62</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>473</v>
@@ -5831,11 +5831,11 @@
       </c>
       <c r="N44" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="24" t="str">
+        <v>42</v>
+      </c>
+      <c r="O44" s="24">
         <f>+IF(B44='1'!$D$15,IF(C44='1'!$D$16, '2'!D44,""),"")</f>
-        <v/>
+        <v>46</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>474</v>
@@ -5882,7 +5882,7 @@
         <v>106.910507</v>
       </c>
       <c r="N45" s="24">
-        <f t="shared" si="1"/>
+        <f>+IF(O45="",0,N44+1)</f>
         <v>0</v>
       </c>
       <c r="O45" s="24" t="str">
@@ -8445,11 +8445,11 @@
       </c>
       <c r="N95" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="24" t="str">
         <f>+IF(B95='1'!$D$15,IF(C95='1'!$D$16, '2'!D95,""),"")</f>
-        <v>5/1</v>
+        <v/>
       </c>
       <c r="P95" s="70" t="s">
         <v>522</v>
@@ -8497,11 +8497,11 @@
       </c>
       <c r="N96" s="24">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O96" s="24" t="str">
         <f>+IF(B96='1'!$D$15,IF(C96='1'!$D$16, '2'!D96,""),"")</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="P96" s="70" t="s">
         <v>523</v>
@@ -8549,11 +8549,11 @@
       </c>
       <c r="N97" s="24">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O97" s="24" t="str">
         <f>+IF(B97='1'!$D$15,IF(C97='1'!$D$16, '2'!D97,""),"")</f>
-        <v>9/1</v>
+        <v/>
       </c>
       <c r="P97" s="70" t="s">
         <v>524</v>
@@ -8599,11 +8599,11 @@
       </c>
       <c r="N98" s="24">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O98" s="24">
+        <v>0</v>
+      </c>
+      <c r="O98" s="24" t="str">
         <f>+IF(B98='1'!$D$15,IF(C98='1'!$D$16, '2'!D98,""),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P98" s="70" t="s">
         <v>525</v>
@@ -8651,11 +8651,11 @@
       </c>
       <c r="N99" s="24">
         <f t="shared" ref="N99:N130" si="3">+IF(O99="",0,N98+1)</f>
-        <v>5</v>
-      </c>
-      <c r="O99" s="24">
+        <v>0</v>
+      </c>
+      <c r="O99" s="24" t="str">
         <f>+IF(B99='1'!$D$15,IF(C99='1'!$D$16, '2'!D99,""),"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="P99" s="70" t="s">
         <v>526</v>
@@ -8703,11 +8703,11 @@
       </c>
       <c r="N100" s="24">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O100" s="24" t="str">
         <f>+IF(B100='1'!$D$15,IF(C100='1'!$D$16, '2'!D100,""),"")</f>
-        <v>4/3</v>
+        <v/>
       </c>
       <c r="P100" s="70" t="s">
         <v>527</v>
@@ -8755,11 +8755,11 @@
       </c>
       <c r="N101" s="24">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O101" s="24" t="str">
         <f>+IF(B101='1'!$D$15,IF(C101='1'!$D$16, '2'!D101,""),"")</f>
-        <v>7/2</v>
+        <v/>
       </c>
       <c r="P101" s="70" t="s">
         <v>528</v>
@@ -8801,11 +8801,11 @@
       </c>
       <c r="N102" s="24">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O102" s="24">
+        <v>0</v>
+      </c>
+      <c r="O102" s="24" t="str">
         <f>+IF(B102='1'!$D$15,IF(C102='1'!$D$16, '2'!D102,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P102" s="70" t="s">
         <v>529</v>
@@ -8853,11 +8853,11 @@
       </c>
       <c r="N103" s="24">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O103" s="24" t="str">
         <f>+IF(B103='1'!$D$15,IF(C103='1'!$D$16, '2'!D103,""),"")</f>
-        <v>17/1</v>
+        <v/>
       </c>
       <c r="P103" s="70" t="s">
         <v>530</v>
@@ -8905,11 +8905,11 @@
       </c>
       <c r="N104" s="24">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="O104" s="24">
+        <v>0</v>
+      </c>
+      <c r="O104" s="24" t="str">
         <f>+IF(B104='1'!$D$15,IF(C104='1'!$D$16, '2'!D104,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P104" s="70" t="s">
         <v>531</v>
@@ -13652,11 +13652,11 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F2" s="24">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>626</v>
@@ -13745,11 +13745,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="24" t="str">
+        <v>41</v>
+      </c>
+      <c r="F3" s="24">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v>17/1</v>
+        <v>62</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" s="24">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>7</v>
-      </c>
-      <c r="F5" s="24" t="str">
+        <v>39</v>
+      </c>
+      <c r="F5" s="24">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v>7/2</v>
+        <v>31</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>169</v>
@@ -13971,11 +13971,11 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>6</v>
-      </c>
-      <c r="F6" s="24" t="str">
+        <v>38</v>
+      </c>
+      <c r="F6" s="24">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v>4/3</v>
+        <v>28</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>171</v>
@@ -14033,11 +14033,11 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="24">
+        <v>37</v>
+      </c>
+      <c r="F7" s="24" t="str">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v>8</v>
+        <v>15А</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>170</v>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F8" s="24">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>3</v>
-      </c>
-      <c r="F9" s="24" t="str">
+        <v>35</v>
+      </c>
+      <c r="F9" s="24">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v>9/1</v>
+        <v>51</v>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14178,11 +14178,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="24" t="str">
+        <v>34</v>
+      </c>
+      <c r="F10" s="24">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v>7/1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14222,11 +14222,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="24" t="str">
+        <v>33</v>
+      </c>
+      <c r="F11" s="24">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v>5/1</v>
+        <v>52</v>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">
@@ -14266,11 +14266,11 @@
       </c>
       <c r="E12" s="24">
         <f>+LARGE('2'!N:N,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="24" t="str">
+        <v>32</v>
+      </c>
+      <c r="F12" s="24">
         <f>+VLOOKUP(E12,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="G12" s="31"/>
       <c r="K12" s="9">
@@ -14310,11 +14310,11 @@
       </c>
       <c r="E13" s="24">
         <f>+LARGE('2'!N:N,D13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="str">
+        <v>31</v>
+      </c>
+      <c r="F13" s="24">
         <f>+VLOOKUP(E13,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="G13" s="31"/>
       <c r="K13" s="9">
@@ -14356,11 +14356,11 @@
       </c>
       <c r="E14" s="24">
         <f>+LARGE('2'!N:N,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24" t="str">
+        <v>30</v>
+      </c>
+      <c r="F14" s="24">
         <f>+VLOOKUP(E14,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
@@ -14401,11 +14401,11 @@
       </c>
       <c r="E15" s="24">
         <f>+LARGE('2'!N:N,D15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="24" t="str">
+        <v>29</v>
+      </c>
+      <c r="F15" s="24">
         <f>+VLOOKUP(E15,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="1"/>
@@ -14446,11 +14446,11 @@
       </c>
       <c r="E16" s="24">
         <f>+LARGE('2'!N:N,D16)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>+VLOOKUP(E16,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13/3</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="1"/>
@@ -14489,11 +14489,11 @@
       </c>
       <c r="E17" s="24">
         <f>+LARGE('2'!N:N,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="24" t="str">
+        <v>27</v>
+      </c>
+      <c r="F17" s="24">
         <f>+VLOOKUP(E17,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
@@ -14532,11 +14532,11 @@
       </c>
       <c r="E18" s="24">
         <f>+LARGE('2'!N:N,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="24" t="str">
+        <v>26</v>
+      </c>
+      <c r="F18" s="24">
         <f>+VLOOKUP(E18,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="1"/>
@@ -14563,11 +14563,11 @@
       </c>
       <c r="E19" s="24">
         <f>+LARGE('2'!N:N,D19)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>+VLOOKUP(E19,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>7/1</v>
       </c>
       <c r="K19" s="9">
         <f>+K18+1</f>
@@ -14594,11 +14594,11 @@
       </c>
       <c r="E20" s="24">
         <f>+LARGE('2'!N:N,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="24" t="str">
+        <v>24</v>
+      </c>
+      <c r="F20" s="24">
         <f>+VLOOKUP(E20,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="1"/>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="E21" s="24">
         <f>+LARGE('2'!N:N,D21)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="24" t="str">
+        <v>23</v>
+      </c>
+      <c r="F21" s="24">
         <f>+VLOOKUP(E21,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="1"/>
@@ -14671,11 +14671,11 @@
       </c>
       <c r="E22" s="24">
         <f>+LARGE('2'!N:N,D22)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24" t="str">
+        <v>22</v>
+      </c>
+      <c r="F22" s="24">
         <f>+VLOOKUP(E22,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
@@ -14710,11 +14710,11 @@
       </c>
       <c r="E23" s="24">
         <f>+LARGE('2'!N:N,D23)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="24" t="str">
+        <v>21</v>
+      </c>
+      <c r="F23" s="24">
         <f>+VLOOKUP(E23,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
@@ -14749,11 +14749,11 @@
       </c>
       <c r="E24" s="24">
         <f>+LARGE('2'!N:N,D24)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>+VLOOKUP(E24,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>18/2</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
@@ -14788,11 +14788,11 @@
       </c>
       <c r="E25" s="24">
         <f>+LARGE('2'!N:N,D25)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>+VLOOKUP(E25,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>18/1</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="1"/>
@@ -14827,11 +14827,11 @@
       </c>
       <c r="E26" s="24">
         <f>+LARGE('2'!N:N,D26)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="24" t="str">
+        <v>18</v>
+      </c>
+      <c r="F26" s="24">
         <f>+VLOOKUP(E26,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="1"/>
@@ -14866,11 +14866,11 @@
       </c>
       <c r="E27" s="24">
         <f>+LARGE('2'!N:N,D27)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="24" t="str">
+        <v>17</v>
+      </c>
+      <c r="F27" s="24">
         <f>+VLOOKUP(E27,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="1"/>
@@ -14905,11 +14905,11 @@
       </c>
       <c r="E28" s="24">
         <f>+LARGE('2'!N:N,D28)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="24" t="str">
+        <v>16</v>
+      </c>
+      <c r="F28" s="24">
         <f>+VLOOKUP(E28,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="1"/>
@@ -14944,11 +14944,11 @@
       </c>
       <c r="E29" s="24">
         <f>+LARGE('2'!N:N,D29)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>+VLOOKUP(E29,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>8/1</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="1"/>
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E30" s="24">
         <f>+LARGE('2'!N:N,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="24" t="str">
+        <v>14</v>
+      </c>
+      <c r="F30" s="24">
         <f>+VLOOKUP(E30,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="1"/>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="E31" s="24">
         <f>+LARGE('2'!N:N,D31)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="24" t="str">
+        <v>13</v>
+      </c>
+      <c r="F31" s="24">
         <f>+VLOOKUP(E31,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
@@ -15061,11 +15061,11 @@
       </c>
       <c r="E32" s="24">
         <f>+LARGE('2'!N:N,D32)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="24" t="str">
+        <v>12</v>
+      </c>
+      <c r="F32" s="24">
         <f>+VLOOKUP(E32,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
@@ -15100,11 +15100,11 @@
       </c>
       <c r="E33" s="24">
         <f>+LARGE('2'!N:N,D33)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="24" t="str">
+        <v>11</v>
+      </c>
+      <c r="F33" s="24">
         <f>+VLOOKUP(E33,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
@@ -15139,11 +15139,11 @@
       </c>
       <c r="E34" s="24">
         <f>+LARGE('2'!N:N,D34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="24" t="str">
+        <v>10</v>
+      </c>
+      <c r="F34" s="24">
         <f>+VLOOKUP(E34,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="1"/>
@@ -15178,11 +15178,11 @@
       </c>
       <c r="E35" s="24">
         <f>+LARGE('2'!N:N,D35)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="24" t="str">
+        <v>9</v>
+      </c>
+      <c r="F35" s="24">
         <f>+VLOOKUP(E35,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
@@ -15217,11 +15217,11 @@
       </c>
       <c r="E36" s="24">
         <f>+LARGE('2'!N:N,D36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="24" t="str">
         <f>+VLOOKUP(E36,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>10Б</v>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -15252,11 +15252,11 @@
       </c>
       <c r="E37" s="24">
         <f>+LARGE('2'!N:N,D37)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="24" t="str">
+        <v>7</v>
+      </c>
+      <c r="F37" s="24">
         <f>+VLOOKUP(E37,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
@@ -15287,11 +15287,11 @@
       </c>
       <c r="E38" s="24">
         <f>+LARGE('2'!N:N,D38)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="24" t="str">
+        <v>6</v>
+      </c>
+      <c r="F38" s="24">
         <f>+VLOOKUP(E38,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
@@ -15322,11 +15322,11 @@
       </c>
       <c r="E39" s="24">
         <f>+LARGE('2'!N:N,D39)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="F39" s="24">
         <f>+VLOOKUP(E39,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -15357,11 +15357,11 @@
       </c>
       <c r="E40" s="24">
         <f>+LARGE('2'!N:N,D40)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="24" t="str">
         <f>+VLOOKUP(E40,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6/2</v>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -15378,11 +15378,11 @@
       </c>
       <c r="E41" s="24">
         <f>+LARGE('2'!N:N,D41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="24" t="str">
         <f>+VLOOKUP(E41,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>6/1</v>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -15399,11 +15399,11 @@
       </c>
       <c r="E42" s="24">
         <f>+LARGE('2'!N:N,D42)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="24" t="str">
+        <v>2</v>
+      </c>
+      <c r="F42" s="24">
         <f>+VLOOKUP(E42,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -15420,11 +15420,11 @@
       </c>
       <c r="E43" s="24">
         <f>+LARGE('2'!N:N,D43)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="24" t="str">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
         <f>+VLOOKUP(E43,'2'!N:O,2,FALSE)</f>
-        <v/>
+        <v>59</v>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF234DB9-C225-4ADD-AFCB-AC844AEFBC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E3613-C00C-4922-A31B-D9CAA312A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="840" windowWidth="18855" windowHeight="7710" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="88" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="83"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,10 +3285,10 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="81"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="17">
         <f>+E36</f>
         <v>9628200</v>
@@ -3303,10 +3303,10 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="83"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
         <v>385128000</v>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,10 +3333,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="83"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
         <v>269589600</v>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="81"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,10 +3362,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="88"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
         <v>269589600</v>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="81"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="81"/>
+      <c r="C45" s="80"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="80"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,10 +3428,10 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="81"/>
+      <c r="C47" s="80"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
         <v>45838</v>
@@ -3460,27 +3460,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3497,6 +3476,27 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3603,12 +3603,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30:K54"/>
+      <selection pane="bottomRight" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/04_Excel/Negtgel_office.xlsx
+++ b/04_Excel/Negtgel_office.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Office\04_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E3613-C00C-4922-A31B-D9CAA312A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B847C2-502F-4942-8B5E-1A18CDBCC8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="840" windowWidth="18855" windowHeight="7710" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="627">
   <si>
     <t>Барилгын нэр</t>
   </si>
@@ -2411,19 +2411,19 @@
     <xf numFmtId="43" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,11 +2435,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2780,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -2798,20 +2798,20 @@
   <sheetData>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2988,8 +2988,8 @@
         <v>18</v>
       </c>
       <c r="C17" s="85"/>
-      <c r="D17" s="54">
-        <v>16</v>
+      <c r="D17" s="54" t="s">
+        <v>165</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="C18" s="85"/>
       <c r="D18" s="43" t="str" cm="1">
         <f t="array" ref="D18">INDEX('2'!F:F, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>Mn central office</v>
+        <v>Twin tower</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -3034,7 +3034,7 @@
       <c r="C20" s="85"/>
       <c r="D20" s="43" cm="1">
         <f t="array" ref="D20">INDEX('2'!$H:$H, MATCH(1, ('2'!B:B=$D$15) * ('2'!C:C=$D$16) * ('2'!D:D=$D$17), 0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E23" s="11">
         <f>+SUMIFS('2'!K:K,'2'!$B:$B,'1'!$D$15,'2'!$C:$C,'1'!$D$16,'2'!$D:$D,'1'!$D$17)</f>
-        <v>9628200</v>
+        <v>7200000</v>
       </c>
       <c r="F23" s="11"/>
     </row>
@@ -3148,7 +3148,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -3167,7 +3167,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="44" t="s">
         <v>75</v>
       </c>
@@ -3184,7 +3184,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="44" t="s">
         <v>76</v>
       </c>
@@ -3201,10 +3201,10 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="48" t="s">
         <v>50</v>
       </c>
@@ -3218,10 +3218,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="83"/>
       <c r="D31" s="47" t="s">
         <v>43</v>
       </c>
@@ -3235,10 +3235,10 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="48" t="s">
         <v>35</v>
       </c>
@@ -3252,10 +3252,10 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="48" t="s">
         <v>35</v>
       </c>
@@ -3285,17 +3285,17 @@
         <f>+A33+1</f>
         <v>25</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="17">
         <f>+E36</f>
-        <v>9628200</v>
+        <v>7200000</v>
       </c>
       <c r="E36" s="41">
         <f>+E9*E10*E21*E22*E23*E27*E28*E29*E25*E26*E24*E30*E31*E32*E33</f>
-        <v>9628200</v>
+        <v>7200000</v>
       </c>
       <c r="F36" s="18"/>
     </row>
@@ -3303,13 +3303,13 @@
       <c r="A37" s="47">
         <v>18</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" s="49">
         <f>IF(D19&lt;2000,IF(D23=2,1,IF(D23=3,1.25,IF(D23=4,1.35,IF(D23=1,0.75,""))))*D36,D22*D36)</f>
-        <v>385128000</v>
+        <v>288000000</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -3318,10 +3318,10 @@
         <f t="shared" ref="A38:A41" si="1">+A37+1</f>
         <v>19</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="52">
         <f>+E8</f>
         <v>0.7</v>
@@ -3333,13 +3333,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="49">
         <f>+D37*D38</f>
-        <v>269589600</v>
+        <v>201600000</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -3348,10 +3348,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17">
         <v>1</v>
       </c>
@@ -3362,13 +3362,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="51">
         <f>+D39*D40</f>
-        <v>269589600</v>
+        <v>201600000</v>
       </c>
       <c r="E41" s="50"/>
     </row>
@@ -3390,10 +3390,10 @@
       <c r="A44" s="47">
         <v>21</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="47">
         <v>3000</v>
       </c>
@@ -3404,10 +3404,10 @@
         <f>+A44+1</f>
         <v>22</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="47"/>
       <c r="E45" s="6"/>
     </row>
@@ -3416,10 +3416,10 @@
         <f t="shared" ref="A46:A47" si="2">+A45+1</f>
         <v>23</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="47"/>
       <c r="E46" s="6"/>
     </row>
@@ -3428,13 +3428,13 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="59">
         <f ca="1">+TODAY()</f>
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="E47" s="6"/>
     </row>
@@ -3460,6 +3460,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -3476,27 +3497,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3603,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E2" sqref="E2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="N3" s="24">
         <f>+IF(O3="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24" t="str">
         <f>+IF(B3='1'!$D$15,IF(C3='1'!$D$16, '2'!D3,""),"")</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="P3" s="21" t="s">
         <v>433</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="N4" s="24">
         <f t="shared" ref="N4:N35" si="0">+IF(O4="",0,N3+1)</f>
-        <v>2</v>
-      </c>
-      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="O4" s="24" t="str">
         <f>+IF(B4='1'!$D$15,IF(C4='1'!$D$16, '2'!D4,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P4" s="21" t="s">
         <v>434</v>
@@ -3832,11 +3832,11 @@
       </c>
       <c r="N5" s="24">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>+IF(B5='1'!$D$15,IF(C5='1'!$D$16, '2'!D5,""),"")</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="P5" s="21" t="s">
         <v>435</v>
@@ -3884,11 +3884,11 @@
       </c>
       <c r="N6" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="24" t="str">
         <f>+IF(B6='1'!$D$15,IF(C6='1'!$D$16, '2'!D6,""),"")</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="P6" s="21" t="s">
         <v>436</v>
@@ -3936,11 +3936,11 @@
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24" t="str">
         <f>+IF(B7='1'!$D$15,IF(C7='1'!$D$16, '2'!D7,""),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="P7" s="21" t="s">
         <v>437</v>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="N8" s="24">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24" t="str">
         <f>+IF(B8='1'!$D$15,IF(C8='1'!$D$16, '2'!D8,""),"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="P8" s="69" t="s">
         <v>438</v>
@@ -4040,11 +4040,11 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24" t="str">
         <f>+IF(B9='1'!$D$15,IF(C9='1'!$D$16, '2'!D9,""),"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="P9" s="21" t="s">
         <v>439</v>
@@ -4092,11 +4092,11 @@
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O10" s="24" t="str">
         <f>+IF(B10='1'!$D$15,IF(C10='1'!$D$16, '2'!D10,""),"")</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="P10" s="21" t="s">
         <v>440</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24" t="str">
         <f>+IF(B11='1'!$D$15,IF(C11='1'!$D$16, '2'!D11,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P11" s="21" t="s">
         <v>441</v>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="N12" s="24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24" t="str">
         <f>+IF(B12='1'!$D$15,IF(C12='1'!$D$16, '2'!D12,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P12" s="21" t="s">
         <v>442</v>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="N13" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24" t="str">
         <f>+IF(B13='1'!$D$15,IF(C13='1'!$D$16, '2'!D13,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P13" s="21" t="s">
         <v>443</v>
@@ -4294,11 +4294,11 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="O14" s="24" t="str">
         <f>+IF(B14='1'!$D$15,IF(C14='1'!$D$16, '2'!D14,""),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="P14" s="21" t="s">
         <v>444</v>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="N15" s="24">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24" t="str">
         <f>+IF(B15='1'!$D$15,IF(C15='1'!$D$16, '2'!D15,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P15" s="21" t="s">
         <v>445</v>
@@ -4399,11 +4399,11 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24" t="str">
         <f>+IF(B16='1'!$D$15,IF(C16='1'!$D$16, '2'!D16,""),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="P16" s="21" t="s">
         <v>446</v>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="N17" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O17" s="24" t="str">
         <f>+IF(B17='1'!$D$15,IF(C17='1'!$D$16, '2'!D17,""),"")</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="P17" s="21" t="s">
         <v>447</v>
@@ -4504,11 +4504,11 @@
       </c>
       <c r="N18" s="24">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24" t="str">
         <f>+IF(B18='1'!$D$15,IF(C18='1'!$D$16, '2'!D18,""),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="P18" s="21" t="s">
         <v>448</v>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="N19" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24" t="str">
         <f>+IF(B19='1'!$D$15,IF(C19='1'!$D$16, '2'!D19,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P19" s="21" t="s">
         <v>449</v>
@@ -4607,11 +4607,11 @@
       </c>
       <c r="N20" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24" t="str">
         <f>+IF(B20='1'!$D$15,IF(C20='1'!$D$16, '2'!D20,""),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="P20" s="21" t="s">
         <v>450</v>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="N21" s="24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" s="24" t="str">
         <f>+IF(B21='1'!$D$15,IF(C21='1'!$D$16, '2'!D21,""),"")</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="P21" s="21" t="s">
         <v>451</v>
@@ -4711,11 +4711,11 @@
       </c>
       <c r="N22" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O22" s="24" t="str">
         <f>+IF(B22='1'!$D$15,IF(C22='1'!$D$16, '2'!D22,""),"")</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="P22" s="21" t="s">
         <v>452</v>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="O23" s="24">
+        <v>0</v>
+      </c>
+      <c r="O23" s="24" t="str">
         <f>+IF(B23='1'!$D$15,IF(C23='1'!$D$16, '2'!D23,""),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="P23" s="21" t="s">
         <v>453</v>
@@ -4813,11 +4813,11 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24" t="str">
         <f>+IF(B24='1'!$D$15,IF(C24='1'!$D$16, '2'!D24,""),"")</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="P24" s="21" t="s">
         <v>454</v>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="N25" s="24">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24" t="str">
         <f>+IF(B25='1'!$D$15,IF(C25='1'!$D$16, '2'!D25,""),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P25" s="21" t="s">
         <v>455</v>
@@ -4915,11 +4915,11 @@
       </c>
       <c r="N26" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24" t="str">
         <f>+IF(B26='1'!$D$15,IF(C26='1'!$D$16, '2'!D26,""),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="P26" s="21" t="s">
         <v>456</v>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="N27" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O27" s="24" t="str">
         <f>+IF(B27='1'!$D$15,IF(C27='1'!$D$16, '2'!D27,""),"")</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="P27" s="21" t="s">
         <v>457</v>
@@ -5019,11 +5019,11 @@
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24" t="str">
         <f>+IF(B28='1'!$D$15,IF(C28='1'!$D$16, '2'!D28,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P28" s="21" t="s">
         <v>458</v>
@@ -5069,11 +5069,11 @@
       </c>
       <c r="N29" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24" t="str">
         <f>+IF(B29='1'!$D$15,IF(C29='1'!$D$16, '2'!D29,""),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="P29" s="21" t="s">
         <v>459</v>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O30" s="24" t="str">
         <f>+IF(B30='1'!$D$15,IF(C30='1'!$D$16, '2'!D30,""),"")</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="P30" s="21" t="s">
         <v>460</v>
@@ -5167,11 +5167,11 @@
       </c>
       <c r="N31" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24" t="str">
         <f>+IF(B31='1'!$D$15,IF(C31='1'!$D$16, '2'!D31,""),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="P31" s="21" t="s">
         <v>461</v>
@@ -5219,11 +5219,11 @@
       </c>
       <c r="N32" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="O32" s="24">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24" t="str">
         <f>+IF(B32='1'!$D$15,IF(C32='1'!$D$16, '2'!D32,""),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P32" s="21" t="s">
         <v>462</v>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="N33" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="O33" s="24">
+        <v>0</v>
+      </c>
+      <c r="O33" s="24" t="str">
         <f>+IF(B33='1'!$D$15,IF(C33='1'!$D$16, '2'!D33,""),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="P33" s="21" t="s">
         <v>463</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="N34" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O34" s="24">
+        <v>0</v>
+      </c>
+      <c r="O34" s="24" t="str">
         <f>+IF(B34='1'!$D$15,IF(C34='1'!$D$16, '2'!D34,""),"")</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="P34" s="21" t="s">
         <v>464</v>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="O35" s="24">
+        <v>0</v>
+      </c>
+      <c r="O35" s="24" t="str">
         <f>+IF(B35='1'!$D$15,IF(C35='1'!$D$16, '2'!D35,""),"")</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="P35" s="21" t="s">
         <v>465</v>
@@ -5419,11 +5419,11 @@
       </c>
       <c r="N36" s="24">
         <f t="shared" ref="N36:N67" si="1">+IF(O36="",0,N35+1)</f>
-        <v>34</v>
-      </c>
-      <c r="O36" s="24">
+        <v>0</v>
+      </c>
+      <c r="O36" s="24" t="str">
         <f>+IF(B36='1'!$D$15,IF(C36='1'!$D$16, '2'!D36,""),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="P36" s="21" t="s">
         <v>466</v>
@@ -5471,11 +5471,11 @@
       </c>
       <c r="N37" s="24">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O37" s="24">
+        <v>0</v>
+      </c>
+      <c r="O37" s="24" t="str">
         <f>+IF(B37='1'!$D$15,IF(C37='1'!$D$16, '2'!D37,""),"")</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="P37" s="21" t="s">
         <v>467</v>
@@ -5523,11 +5523,11 @@
       </c>
       <c r="N38" s="24">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="O38" s="24">
+        <v>0</v>
+      </c>
+      <c r="O38" s="24" t="str">
         <f>+IF(B38='1'!$D$15,IF(C38='1'!$D$16, '2'!D38,""),"")</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="P38" s="21" t="s">
         <v>468</v>
@@ -5575,11 +5575,11 @@
       </c>
       <c r="N39" s="24">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O39" s="24" t="str">
         <f>+IF(B39='1'!$D$15,IF(C39='1'!$D$16, '2'!D39,""),"")</f>
-        <v>15А</v>
+        <v/>
       </c>
       <c r="P39" s="21" t="s">
         <v>469</v>
@@ -5625,11 +5625,11 @@
       </c>
       <c r="N40" s="24">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O40" s="24">
+        <v>0</v>
+      </c>
+      <c r="O40" s="24" t="str">
         <f>+IF(B40='1'!$D$15,IF(C40='1'!$D$16, '2'!D40,""),"")</f>
-        <v>28</v>
+        <v/>
       </c>
       <c r="P40" s="21" t="s">
         <v>470</v>
@@ -5677,11 +5677,11 @@
       </c>
       <c r="N41" s="24">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O41" s="24">
+        <v>0</v>
+      </c>
+      <c r="O41" s="24" t="str">
         <f>+IF(B41='1'!$D$15,IF(C41='1'!$D$16, '2'!D41,""),"")</f>
-        <v>31</v>
+        <v/>
       </c>
       <c r="P41" s="21" t="s">
         <v>471</v>
@@ -5729,11 +5729,11 @@
       </c>
       <c r="N42" s="24">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="O42" s="24">
+        <v>0</v>
+      </c>
+      <c r="O42" s="24" t="str">
         <f>+IF(B42='1'!$D$15,IF(C42='1'!$D$16, '2'!D42,""),"")</f>
-        <v>42</v>
+        <v/>
       </c>
       <c r="P42" s="21" t="s">
         <v>472</v>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="N43" s="24">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="O43" s="24">
+        <v>0</v>
+      </c>
+      <c r="O43" s="24" t="str">
         <f>+IF(B43='1'!$D$15,IF(C43='1'!$D$16, '2'!D43,""),"")</f>
-        <v>62</v>
+        <v/>
       </c>
       <c r="P43" s="21" t="s">
         <v>473</v>
@@ -5831,11 +5831,11 @@
       </c>
       <c r="N44" s="24">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="O44" s="24">
+        <v>0</v>
+      </c>
+      <c r="O44" s="24" t="str">
         <f>+IF(B44='1'!$D$15,IF(C44='1'!$D$16, '2'!D44,""),"")</f>
-        <v>46</v>
+        <v/>
       </c>
       <c r="P44" s="21" t="s">
         <v>474</v>
@@ -5883,11 +5883,11 @@
       </c>
       <c r="N45" s="24">
         <f>+IF(O45="",0,N44+1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="24" t="str">
         <f>+IF(B45='1'!$D$15,IF(C45='1'!$D$16, '2'!D45,""),"")</f>
-        <v/>
+        <v>10/1</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>475</v>
@@ -5935,11 +5935,11 @@
       </c>
       <c r="N46" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" s="24" t="str">
         <f>+IF(B46='1'!$D$15,IF(C46='1'!$D$16, '2'!D46,""),"")</f>
-        <v/>
+        <v>10/2</v>
       </c>
       <c r="P46" s="21" t="s">
         <v>476</v>
@@ -5987,11 +5987,11 @@
       </c>
       <c r="N47" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O47" s="24" t="str">
         <f>+IF(B47='1'!$D$15,IF(C47='1'!$D$16, '2'!D47,""),"")</f>
-        <v/>
+        <v>11/1</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>477</v>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="N48" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="O48" s="24">
         <f>+IF(B48='1'!$D$15,IF(C48='1'!$D$16, '2'!D48,""),"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>478</v>
@@ -6091,11 +6091,11 @@
       </c>
       <c r="N49" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O49" s="24" t="str">
         <f>+IF(B49='1'!$D$15,IF(C49='1'!$D$16, '2'!D49,""),"")</f>
-        <v/>
+        <v>21/1</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>479</v>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="N50" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O50" s="24" t="str">
         <f>+IF(B50='1'!$D$15,IF(C50='1'!$D$16, '2'!D50,""),"")</f>
-        <v/>
+        <v>21/2</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>480</v>
@@ -13652,11 +13652,11 @@
       </c>
       <c r="E2" s="24">
         <f>+LARGE('2'!N:N,D2)</f>
-        <v>42</v>
-      </c>
-      <c r="F2" s="24">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24" t="str">
         <f>+VLOOKUP(E2,'2'!N:O,2,FALSE)</f>
-        <v>46</v>
+        <v>21/2</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>626</v>
@@ -13745,11 +13745,11 @@
       </c>
       <c r="E3" s="24">
         <f>+LARGE('2'!N:N,D3)</f>
-        <v>41</v>
-      </c>
-      <c r="F3" s="24">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="str">
         <f>+VLOOKUP(E3,'2'!N:O,2,FALSE)</f>
-        <v>62</v>
+        <v>21/1</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>168</v>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="E4" s="24">
         <f>+LARGE('2'!N:N,D4)</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F4" s="24">
         <f>+VLOOKUP(E4,'2'!N:O,2,FALSE)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>169</v>
@@ -13908,11 +13908,11 @@
       </c>
       <c r="E5" s="24">
         <f>+LARGE('2'!N:N,D5)</f>
-        <v>39</v>
-      </c>
-      <c r="F5" s="24">
+        <v>3</v>
+      </c>
+      <c r="F5" s="24" t="str">
         <f>+VLOOKUP(E5,'2'!N:O,2,FALSE)</f>
-        <v>31</v>
+        <v>11/1</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>169</v>
@@ -13971,11 +13971,11 @@
       </c>
       <c r="E6" s="24">
         <f>+LARGE('2'!N:N,D6)</f>
-        <v>38</v>
-      </c>
-      <c r="F6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24" t="str">
         <f>+VLOOKUP(E6,'2'!N:O,2,FALSE)</f>
-        <v>28</v>
+        <v>10/2</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>171</v>
@@ -14033,11 +14033,11 @@
       </c>
       <c r="E7" s="24">
         <f>+LARGE('2'!N:N,D7)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F7" s="24" t="str">
         <f>+VLOOKUP(E7,'2'!N:O,2,FALSE)</f>
-        <v>15А</v>
+        <v>10/1</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>170</v>
@@ -14088,11 +14088,11 @@
       </c>
       <c r="E8" s="24">
         <f>+LARGE('2'!N:N,D8)</f>
-        <v>36</v>
-      </c>
-      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24" t="str">
         <f>+VLOOKUP(E8,'2'!N:O,2,FALSE)</f>
-        <v>34</v>
+        <v/>
       </c>
       <c r="G8" s="31"/>
       <c r="K8" s="9">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="E9" s="24">
         <f>+LARGE('2'!N:N,D9)</f>
-        <v>35</v>
-      </c>
-      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24" t="str">
         <f>+VLOOKUP(E9,'2'!N:O,2,FALSE)</f>
-        <v>51</v>
+        <v/>
       </c>
       <c r="G9" s="31"/>
       <c r="K9" s="9">
@@ -14178,11 +14178,11 @@
       </c>
       <c r="E10" s="24">
         <f>+LARGE('2'!N:N,D10)</f>
-        <v>34</v>
-      </c>
-      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24" t="str">
         <f>+VLOOKUP(E10,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" s="31"/>
       <c r="K10" s="9">
@@ -14222,11 +14222,11 @@
       </c>
       <c r="E11" s="24">
         <f>+LARGE('2'!N:N,D11)</f>
-        <v>33</v>
-      </c>
-      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="24" t="str">
         <f>+VLOOKUP(E11,'2'!N:O,2,FALSE)</f>
-        <v>52</v>
+        <v/>
       </c>
       <c r="G11" s="31"/>
       <c r="K11" s="9">
@@ -14266,11 +14266,11 @@
       </c>
       <c r="E12" s="24">
         <f>+LARGE('2'!N:N,D12)</f>
-        <v>32</v>
-      </c>
-      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24" t="str">
         <f>+VLOOKUP(E12,'2'!N:O,2,FALSE)</f>
-        <v>50</v>
+        <v/>
       </c>
       <c r="G12" s="31"/>
       <c r="K12" s="9">
@@ -14310,11 +14310,11 @@
       </c>
       <c r="E13" s="24">
         <f>+LARGE('2'!N:N,D13)</f>
-        <v>31</v>
-      </c>
-      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24" t="str">
         <f>+VLOOKUP(E13,'2'!N:O,2,FALSE)</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="G13" s="31"/>
       <c r="K13" s="9">
@@ -14356,11 +14356,11 @@
       </c>
       <c r="E14" s="24">
         <f>+LARGE('2'!N:N,D14)</f>
-        <v>30</v>
-      </c>
-      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24" t="str">
         <f>+VLOOKUP(E14,'2'!N:O,2,FALSE)</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="1"/>
@@ -14401,11 +14401,11 @@
       </c>
       <c r="E15" s="24">
         <f>+LARGE('2'!N:N,D15)</f>
-        <v>29</v>
-      </c>
-      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="str">
         <f>+VLOOKUP(E15,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K15" s="9">
         <f t="shared" si="1"/>
@@ -14446,11 +14446,11 @@
       </c>
       <c r="E16" s="24">
         <f>+LARGE('2'!N:N,D16)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>+VLOOKUP(E16,'2'!N:O,2,FALSE)</f>
-        <v>13/3</v>
+        <v/>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="1"/>
@@ -14489,11 +14489,11 @@
       </c>
       <c r="E17" s="24">
         <f>+LARGE('2'!N:N,D17)</f>
-        <v>27</v>
-      </c>
-      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24" t="str">
         <f>+VLOOKUP(E17,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K17" s="9">
         <f t="shared" si="1"/>
@@ -14532,11 +14532,11 @@
       </c>
       <c r="E18" s="24">
         <f>+LARGE('2'!N:N,D18)</f>
-        <v>26</v>
-      </c>
-      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24" t="str">
         <f>+VLOOKUP(E18,'2'!N:O,2,FALSE)</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="K18" s="9">
         <f t="shared" si="1"/>
@@ -14563,11 +14563,11 @@
       </c>
       <c r="E19" s="24">
         <f>+LARGE('2'!N:N,D19)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F19" s="24" t="str">
         <f>+VLOOKUP(E19,'2'!N:O,2,FALSE)</f>
-        <v>7/1</v>
+        <v/>
       </c>
       <c r="K19" s="9">
         <f>+K18+1</f>
@@ -14594,11 +14594,11 @@
       </c>
       <c r="E20" s="24">
         <f>+LARGE('2'!N:N,D20)</f>
-        <v>24</v>
-      </c>
-      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24" t="str">
         <f>+VLOOKUP(E20,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K20" s="9">
         <f t="shared" si="1"/>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="E21" s="24">
         <f>+LARGE('2'!N:N,D21)</f>
-        <v>23</v>
-      </c>
-      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24" t="str">
         <f>+VLOOKUP(E21,'2'!N:O,2,FALSE)</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="K21" s="9">
         <f t="shared" si="1"/>
@@ -14671,11 +14671,11 @@
       </c>
       <c r="E22" s="24">
         <f>+LARGE('2'!N:N,D22)</f>
-        <v>22</v>
-      </c>
-      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24" t="str">
         <f>+VLOOKUP(E22,'2'!N:O,2,FALSE)</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="K22" s="9">
         <f t="shared" si="1"/>
@@ -14710,11 +14710,11 @@
       </c>
       <c r="E23" s="24">
         <f>+LARGE('2'!N:N,D23)</f>
-        <v>21</v>
-      </c>
-      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24" t="str">
         <f>+VLOOKUP(E23,'2'!N:O,2,FALSE)</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="K23" s="9">
         <f t="shared" si="1"/>
@@ -14749,11 +14749,11 @@
       </c>
       <c r="E24" s="24">
         <f>+LARGE('2'!N:N,D24)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24" s="24" t="str">
         <f>+VLOOKUP(E24,'2'!N:O,2,FALSE)</f>
-        <v>18/2</v>
+        <v/>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="1"/>
@@ -14788,11 +14788,11 @@
       </c>
       <c r="E25" s="24">
         <f>+LARGE('2'!N:N,D25)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F25" s="24" t="str">
         <f>+VLOOKUP(E25,'2'!N:O,2,FALSE)</f>
-        <v>18/1</v>
+        <v/>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="1"/>
@@ -14827,11 +14827,11 @@
       </c>
       <c r="E26" s="24">
         <f>+LARGE('2'!N:N,D26)</f>
-        <v>18</v>
-      </c>
-      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="str">
         <f>+VLOOKUP(E26,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="1"/>
@@ -14866,11 +14866,11 @@
       </c>
       <c r="E27" s="24">
         <f>+LARGE('2'!N:N,D27)</f>
-        <v>17</v>
-      </c>
-      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="str">
         <f>+VLOOKUP(E27,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="1"/>
@@ -14905,11 +14905,11 @@
       </c>
       <c r="E28" s="24">
         <f>+LARGE('2'!N:N,D28)</f>
-        <v>16</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="str">
         <f>+VLOOKUP(E28,'2'!N:O,2,FALSE)</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="1"/>
@@ -14944,11 +14944,11 @@
       </c>
       <c r="E29" s="24">
         <f>+LARGE('2'!N:N,D29)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="24" t="str">
         <f>+VLOOKUP(E29,'2'!N:O,2,FALSE)</f>
-        <v>8/1</v>
+        <v/>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="1"/>
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E30" s="24">
         <f>+LARGE('2'!N:N,D30)</f>
-        <v>14</v>
-      </c>
-      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="str">
         <f>+VLOOKUP(E30,'2'!N:O,2,FALSE)</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="1"/>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="E31" s="24">
         <f>+LARGE('2'!N:N,D31)</f>
-        <v>13</v>
-      </c>
-      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="str">
         <f>+VLOOKUP(E31,'2'!N:O,2,FALSE)</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="1"/>
@@ -15061,11 +15061,11 @@
       </c>
       <c r="E32" s="24">
         <f>+LARGE('2'!N:N,D32)</f>
-        <v>12</v>
-      </c>
-      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="str">
         <f>+VLOOKUP(E32,'2'!N:O,2,FALSE)</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="K32" s="9">
         <f t="shared" si="1"/>
@@ -15100,11 +15100,11 @@
       </c>
       <c r="E33" s="24">
         <f>+LARGE('2'!N:N,D33)</f>
-        <v>11</v>
-      </c>
-      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="str">
         <f>+VLOOKUP(E33,'2'!N:O,2,FALSE)</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
@@ -15139,11 +15139,11 @@
       </c>
       <c r="E34" s="24">
         <f>+LARGE('2'!N:N,D34)</f>
-        <v>10</v>
-      </c>
-      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="str">
         <f>+VLOOKUP(E34,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="1"/>
@@ -15178,11 +15178,11 @@
       </c>
       <c r="E35" s="24">
         <f>+LARGE('2'!N:N,D35)</f>
-        <v>9</v>
-      </c>
-      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="str">
         <f>+VLOOKUP(E35,'2'!N:O,2,FALSE)</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
@@ -15217,11 +15217,11 @@
       </c>
       <c r="E36" s="24">
         <f>+LARGE('2'!N:N,D36)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" s="24" t="str">
         <f>+VLOOKUP(E36,'2'!N:O,2,FALSE)</f>
-        <v>10Б</v>
+        <v/>
       </c>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -15252,11 +15252,11 @@
       </c>
       <c r="E37" s="24">
         <f>+LARGE('2'!N:N,D37)</f>
-        <v>7</v>
-      </c>
-      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24" t="str">
         <f>+VLOOKUP(E37,'2'!N:O,2,FALSE)</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
@@ -15287,11 +15287,11 @@
       </c>
       <c r="E38" s="24">
         <f>+LARGE('2'!N:N,D38)</f>
-        <v>6</v>
-      </c>
-      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24" t="str">
         <f>+VLOOKUP(E38,'2'!N:O,2,FALSE)</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
@@ -15322,11 +15322,11 @@
       </c>
       <c r="E39" s="24">
         <f>+LARGE('2'!N:N,D39)</f>
-        <v>5</v>
-      </c>
-      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24" t="str">
         <f>+VLOOKUP(E39,'2'!N:O,2,FALSE)</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -15357,11 +15357,11 @@
       </c>
       <c r="E40" s="24">
         <f>+LARGE('2'!N:N,D40)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="24" t="str">
         <f>+VLOOKUP(E40,'2'!N:O,2,FALSE)</f>
-        <v>6/2</v>
+        <v/>
       </c>
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
@@ -15378,11 +15378,11 @@
       </c>
       <c r="E41" s="24">
         <f>+LARGE('2'!N:N,D41)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="24" t="str">
         <f>+VLOOKUP(E41,'2'!N:O,2,FALSE)</f>
-        <v>6/1</v>
+        <v/>
       </c>
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
@@ -15399,11 +15399,11 @@
       </c>
       <c r="E42" s="24">
         <f>+LARGE('2'!N:N,D42)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="F42" s="24" t="str">
         <f>+VLOOKUP(E42,'2'!N:O,2,FALSE)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
@@ -15420,11 +15420,11 @@
       </c>
       <c r="E43" s="24">
         <f>+LARGE('2'!N:N,D43)</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24" t="str">
         <f>+VLOOKUP(E43,'2'!N:O,2,FALSE)</f>
-        <v>59</v>
+        <v/>
       </c>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
